--- a/Copia de Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002)A.xlsx
+++ b/Copia de Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002)A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN_PC\Documents\GitHub\cicloruta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB98BCBB-A13E-4AA6-865A-91F6D234F6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45211D7-DD20-4891-A3A4-002E6DB4CEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,7 +2333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="863">
   <si>
     <t>ID_OP</t>
   </si>
@@ -4919,6 +4919,9 @@
   </si>
   <si>
     <t xml:space="preserve">21 22 23 </t>
+  </si>
+  <si>
+    <t>21 22 23</t>
   </si>
 </sst>
 </file>
@@ -5492,7 +5495,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5879,6 +5882,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="4" builtinId="6"/>
@@ -6226,17 +6232,16 @@
   </sheetPr>
   <dimension ref="A1:R1125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1126" sqref="D1126"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1126" sqref="G1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="137" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="137" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="119" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="119" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="119" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="137" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="119" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="119" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="145" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="147" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="119" customWidth="1"/>
@@ -6246,8 +6251,8 @@
     <col min="12" max="12" width="4.42578125" style="119" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="119" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="126" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="126" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="119" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="126" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="119" customWidth="1"/>
     <col min="17" max="17" width="37" style="119" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" style="119" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="119"/>
@@ -6309,7 +6314,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="116">
         <v>2000030</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>2000030</v>
       </c>
@@ -6401,7 +6406,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="116">
         <v>2000030</v>
       </c>
@@ -6447,7 +6452,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="116">
         <v>2000030</v>
       </c>
@@ -6493,7 +6498,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="116">
         <v>2000030</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="120" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="120" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="116">
         <v>2000030</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="120" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="116">
         <v>2000030</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="116">
         <v>2000030</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="116">
         <v>2000030</v>
       </c>
@@ -6723,7 +6728,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="116">
         <v>2000030</v>
       </c>
@@ -6769,7 +6774,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104">
         <v>2000030</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104">
         <v>2000030</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="104">
         <v>2000030</v>
       </c>
@@ -6910,7 +6915,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="104">
         <v>2000030</v>
       </c>
@@ -6957,7 +6962,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="104">
         <v>2000030</v>
       </c>
@@ -7004,7 +7009,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="104">
         <v>2000030</v>
       </c>
@@ -7051,7 +7056,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="104">
         <v>2000030</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104">
         <v>2000030</v>
       </c>
@@ -7145,7 +7150,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="104">
         <v>2000030</v>
       </c>
@@ -7192,7 +7197,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="104">
         <v>2000030</v>
       </c>
@@ -7237,7 +7242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="104">
         <v>2000030</v>
       </c>
@@ -7276,7 +7281,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="104">
         <v>2000030</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="104">
         <v>2000030</v>
       </c>
@@ -7352,7 +7357,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="104">
         <v>2000030</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="116">
         <v>2000030</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="104">
         <v>2000030</v>
       </c>
@@ -7465,7 +7470,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104">
         <v>2000030</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104">
         <v>2000030</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104">
         <v>2000030</v>
       </c>
@@ -7582,7 +7587,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="104">
         <v>2000030</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104">
         <v>2000030</v>
       </c>
@@ -7660,7 +7665,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104">
         <v>2000030</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104">
         <v>2000030</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104">
         <v>2000030</v>
       </c>
@@ -7777,7 +7782,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104">
         <v>2000030</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104">
         <v>2000030</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="116">
         <v>2000030</v>
       </c>
@@ -7892,7 +7897,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="104">
         <v>2000030</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="104">
         <v>2000030</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="104">
         <v>2000030</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="104">
         <v>2000030</v>
       </c>
@@ -8048,7 +8053,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="104">
         <v>2000030</v>
       </c>
@@ -8087,7 +8092,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="104">
         <v>2000030</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="104">
         <v>2000030</v>
       </c>
@@ -8165,7 +8170,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="104">
         <v>2000030</v>
       </c>
@@ -8204,7 +8209,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="104">
         <v>2000030</v>
       </c>
@@ -8243,7 +8248,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="104">
         <v>2000030</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="104">
         <v>2000030</v>
       </c>
@@ -8321,7 +8326,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="128" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="128" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="114">
         <v>2000030</v>
       </c>
@@ -8358,7 +8363,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>2000030</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104">
         <v>2000030</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="104">
         <v>2000030</v>
       </c>
@@ -8475,7 +8480,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="104">
         <v>2000030</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="104">
         <v>2000030</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="104">
         <v>2000030</v>
       </c>
@@ -8592,7 +8597,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="104">
         <v>2000030</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="104">
         <v>2000030</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="104">
         <v>2000030</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="104">
         <v>2000030</v>
       </c>
@@ -8748,7 +8753,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="104">
         <v>2000030</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="104">
         <v>2000030</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="104">
         <v>2000030</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="104">
         <v>2000030</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="104">
         <v>2000030</v>
       </c>
@@ -8943,7 +8948,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="116">
         <v>2000030</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="104">
         <v>2000030</v>
       </c>
@@ -9028,7 +9033,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="104">
         <v>2000030</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="116">
         <v>2000030</v>
       </c>
@@ -9107,7 +9112,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="116">
         <v>2000030</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="116">
         <v>2000030</v>
       </c>
@@ -9191,7 +9196,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="116">
         <v>2000030</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="116">
         <v>2000030</v>
       </c>
@@ -9270,7 +9275,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="116">
         <v>2000030</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="116">
         <v>2000030</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="157">
         <v>2000030</v>
       </c>
@@ -9388,7 +9393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="157">
         <v>2000030</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>184730</v>
       </c>
       <c r="G77" s="178">
-        <f t="shared" ref="G77:G82" si="4">F77-400</f>
+        <f t="shared" ref="G77" si="4">F77-400</f>
         <v>184330</v>
       </c>
       <c r="I77" s="169" t="s">
@@ -9424,7 +9429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="157">
         <v>2000030</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="157">
         <v>2000030</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="157">
         <v>2000030</v>
       </c>
@@ -9532,7 +9537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="157">
         <v>2000030</v>
       </c>
@@ -9569,7 +9574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="157">
         <v>2000030</v>
       </c>
@@ -9606,7 +9611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="157">
         <v>2000030</v>
       </c>
@@ -9640,7 +9645,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="157">
         <v>2000030</v>
       </c>
@@ -9677,7 +9682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="157">
         <v>2000030</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="116">
         <v>2000030</v>
       </c>
@@ -9753,7 +9758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="116">
         <v>2000030</v>
       </c>
@@ -9790,7 +9795,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="116">
         <v>2000030</v>
       </c>
@@ -9827,7 +9832,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="116">
         <v>2000030</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="157">
         <v>2000030</v>
       </c>
@@ -9902,7 +9907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="157">
         <v>2000030</v>
       </c>
@@ -9938,7 +9943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="157">
         <v>2000030</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="157">
         <v>2000030</v>
       </c>
@@ -10006,7 +10011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="157">
         <v>2000030</v>
       </c>
@@ -10042,7 +10047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="157">
         <v>2000030</v>
       </c>
@@ -10078,7 +10083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="157">
         <v>2000030</v>
       </c>
@@ -10114,7 +10119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="157">
         <v>2000030</v>
       </c>
@@ -10147,7 +10152,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="157">
         <v>2000030</v>
       </c>
@@ -10183,7 +10188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="160" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="160" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="157">
         <v>2000030</v>
       </c>
@@ -10219,7 +10224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="116">
         <v>2000030</v>
       </c>
@@ -10259,7 +10264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="116">
         <v>2000030</v>
       </c>
@@ -10296,7 +10301,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="116">
         <v>2000030</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="116">
         <v>2000030</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="116">
         <v>2000030</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="104">
         <v>2000030</v>
       </c>
@@ -10452,7 +10457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="134" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" s="134" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="111">
         <v>2000030</v>
       </c>
@@ -10481,7 +10486,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="116">
         <v>2000030</v>
       </c>
@@ -10520,7 +10525,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="116">
         <v>2000030</v>
       </c>
@@ -10562,7 +10567,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="116">
         <v>2000030</v>
       </c>
@@ -10602,7 +10607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="104">
         <v>2000030</v>
       </c>
@@ -10640,7 +10645,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="116">
         <v>2000030</v>
       </c>
@@ -10680,7 +10685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="116">
         <v>2000030</v>
       </c>
@@ -10717,7 +10722,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" s="120" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="116">
         <v>2000030</v>
       </c>
@@ -10786,7 +10791,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="120" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" s="120" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="116">
         <v>2000030</v>
       </c>
@@ -11323,12 +11328,25 @@
       <c r="A128" s="143">
         <v>2000029</v>
       </c>
-      <c r="B128" s="132"/>
-      <c r="C128" s="132"/>
-      <c r="D128" s="132"/>
-      <c r="E128" s="132"/>
-      <c r="F128" s="132"/>
-      <c r="G128" s="132"/>
+      <c r="B128" s="132">
+        <v>2</v>
+      </c>
+      <c r="C128" s="132">
+        <v>2</v>
+      </c>
+      <c r="D128" s="132">
+        <v>21</v>
+      </c>
+      <c r="E128" s="119">
+        <v>-1</v>
+      </c>
+      <c r="F128" s="155">
+        <v>141520</v>
+      </c>
+      <c r="G128" s="155">
+        <f>F128-2450</f>
+        <v>139070</v>
+      </c>
       <c r="H128" s="132"/>
       <c r="I128" s="132"/>
       <c r="J128" s="132"/>
@@ -11351,12 +11369,25 @@
       <c r="A129" s="143">
         <v>2000029</v>
       </c>
-      <c r="B129" s="132"/>
-      <c r="C129" s="132"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="132"/>
-      <c r="F129" s="132"/>
-      <c r="G129" s="132"/>
+      <c r="B129" s="132">
+        <v>2</v>
+      </c>
+      <c r="C129" s="132">
+        <v>2</v>
+      </c>
+      <c r="D129" s="132">
+        <v>21</v>
+      </c>
+      <c r="E129" s="119">
+        <v>-1</v>
+      </c>
+      <c r="F129" s="155">
+        <v>139410</v>
+      </c>
+      <c r="G129" s="155">
+        <f>F129-5000</f>
+        <v>134410</v>
+      </c>
       <c r="H129" s="132"/>
       <c r="I129" s="132"/>
       <c r="J129" s="132"/>
@@ -11379,12 +11410,25 @@
       <c r="A130" s="143">
         <v>2000029</v>
       </c>
-      <c r="B130" s="132"/>
-      <c r="C130" s="132"/>
-      <c r="D130" s="132"/>
-      <c r="E130" s="132"/>
-      <c r="F130" s="132"/>
-      <c r="G130" s="132"/>
+      <c r="B130" s="132">
+        <v>2</v>
+      </c>
+      <c r="C130" s="132">
+        <v>2</v>
+      </c>
+      <c r="D130" s="132">
+        <v>22</v>
+      </c>
+      <c r="E130" s="119">
+        <v>-1</v>
+      </c>
+      <c r="F130" s="155">
+        <v>139410</v>
+      </c>
+      <c r="G130" s="155">
+        <f>F130-5000</f>
+        <v>134410</v>
+      </c>
       <c r="H130" s="132"/>
       <c r="I130" s="132"/>
       <c r="J130" s="132"/>
@@ -26839,7 +26883,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="489" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="104">
         <v>2000028</v>
       </c>
@@ -26849,12 +26893,19 @@
       <c r="C489" s="2">
         <v>3</v>
       </c>
-      <c r="D489"/>
+      <c r="D489">
+        <v>21</v>
+      </c>
       <c r="E489" s="2">
         <v>-1</v>
       </c>
-      <c r="F489"/>
-      <c r="G489"/>
+      <c r="F489" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G489" s="210">
+        <f>F489-4000</f>
+        <v>55400</v>
+      </c>
       <c r="H489"/>
       <c r="I489" s="2" t="s">
         <v>17</v>
@@ -26879,7 +26930,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="490" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="104">
         <v>2000028</v>
       </c>
@@ -26889,12 +26940,19 @@
       <c r="C490" s="2">
         <v>3</v>
       </c>
-      <c r="D490"/>
+      <c r="D490">
+        <v>21</v>
+      </c>
       <c r="E490" s="2">
         <v>-1</v>
       </c>
-      <c r="F490"/>
-      <c r="G490"/>
+      <c r="F490" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G490" s="210">
+        <f t="shared" ref="G490:G499" si="12">F490-4000</f>
+        <v>55400</v>
+      </c>
       <c r="H490"/>
       <c r="I490" s="2" t="s">
         <v>17</v>
@@ -26919,7 +26977,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="491" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="104">
         <v>2000028</v>
       </c>
@@ -26929,12 +26987,19 @@
       <c r="C491" s="2">
         <v>3</v>
       </c>
-      <c r="D491"/>
+      <c r="D491">
+        <v>21</v>
+      </c>
       <c r="E491" s="2">
         <v>-1</v>
       </c>
-      <c r="F491"/>
-      <c r="G491"/>
+      <c r="F491" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G491" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H491"/>
       <c r="I491" s="2" t="s">
         <v>17</v>
@@ -26959,7 +27024,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="492" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="104">
         <v>2000028</v>
       </c>
@@ -26969,12 +27034,19 @@
       <c r="C492" s="2">
         <v>3</v>
       </c>
-      <c r="D492"/>
+      <c r="D492">
+        <v>22</v>
+      </c>
       <c r="E492" s="2">
         <v>-1</v>
       </c>
-      <c r="F492"/>
-      <c r="G492"/>
+      <c r="F492" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G492" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H492"/>
       <c r="I492" s="2" t="s">
         <v>17</v>
@@ -26999,7 +27071,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="493" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="104">
         <v>2000028</v>
       </c>
@@ -27009,12 +27081,19 @@
       <c r="C493" s="2">
         <v>3</v>
       </c>
-      <c r="D493"/>
+      <c r="D493">
+        <v>22</v>
+      </c>
       <c r="E493" s="2">
         <v>-1</v>
       </c>
-      <c r="F493"/>
-      <c r="G493"/>
+      <c r="F493" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G493" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H493"/>
       <c r="I493" s="2" t="s">
         <v>17</v>
@@ -27039,7 +27118,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="494" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="104">
         <v>2000028</v>
       </c>
@@ -27049,12 +27128,19 @@
       <c r="C494" s="2">
         <v>3</v>
       </c>
-      <c r="D494"/>
+      <c r="D494">
+        <v>22</v>
+      </c>
       <c r="E494" s="2">
         <v>-1</v>
       </c>
-      <c r="F494"/>
-      <c r="G494"/>
+      <c r="F494" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G494" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H494"/>
       <c r="I494" s="2" t="s">
         <v>17</v>
@@ -27079,7 +27165,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="495" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="104">
         <v>2000028</v>
       </c>
@@ -27089,12 +27175,19 @@
       <c r="C495" s="2">
         <v>3</v>
       </c>
-      <c r="D495"/>
+      <c r="D495">
+        <v>23</v>
+      </c>
       <c r="E495" s="2">
         <v>-1</v>
       </c>
-      <c r="F495"/>
-      <c r="G495"/>
+      <c r="F495" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G495" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H495"/>
       <c r="I495" s="2" t="s">
         <v>17</v>
@@ -27119,7 +27212,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="496" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="104">
         <v>2000028</v>
       </c>
@@ -27129,12 +27222,19 @@
       <c r="C496" s="2">
         <v>3</v>
       </c>
-      <c r="D496"/>
+      <c r="D496">
+        <v>23</v>
+      </c>
       <c r="E496" s="2">
         <v>-1</v>
       </c>
-      <c r="F496"/>
-      <c r="G496"/>
+      <c r="F496" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G496" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H496"/>
       <c r="I496" s="2" t="s">
         <v>17</v>
@@ -27159,7 +27259,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="497" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="104">
         <v>2000028</v>
       </c>
@@ -27169,12 +27269,19 @@
       <c r="C497" s="2">
         <v>3</v>
       </c>
-      <c r="D497"/>
+      <c r="D497">
+        <v>23</v>
+      </c>
       <c r="E497" s="2">
         <v>-1</v>
       </c>
-      <c r="F497"/>
-      <c r="G497"/>
+      <c r="F497" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G497" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H497"/>
       <c r="I497" s="2" t="s">
         <v>17</v>
@@ -27199,7 +27306,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="498" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="104">
         <v>2000028</v>
       </c>
@@ -27209,12 +27316,19 @@
       <c r="C498" s="2">
         <v>3</v>
       </c>
-      <c r="D498"/>
+      <c r="D498">
+        <v>23</v>
+      </c>
       <c r="E498" s="2">
         <v>-1</v>
       </c>
-      <c r="F498"/>
-      <c r="G498"/>
+      <c r="F498" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G498" s="210">
+        <f t="shared" si="12"/>
+        <v>55400</v>
+      </c>
       <c r="H498"/>
       <c r="I498" s="2" t="s">
         <v>17</v>
@@ -27239,7 +27353,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="499" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="104">
         <v>2000028</v>
       </c>
@@ -27249,8 +27363,18 @@
       <c r="C499" s="2">
         <v>3</v>
       </c>
+      <c r="D499" s="2" t="s">
+        <v>862</v>
+      </c>
       <c r="E499" s="2">
         <v>-1</v>
+      </c>
+      <c r="F499" s="211">
+        <v>54820</v>
+      </c>
+      <c r="G499" s="211">
+        <f>F499-2230</f>
+        <v>52590</v>
       </c>
       <c r="I499" s="15"/>
       <c r="J499" s="15" t="s">
@@ -27270,7 +27394,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="500" spans="1:18" s="158" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="157">
         <v>2000028</v>
       </c>
@@ -27285,6 +27409,13 @@
       </c>
       <c r="E500" s="158">
         <v>-1</v>
+      </c>
+      <c r="F500" s="212">
+        <v>51510</v>
+      </c>
+      <c r="G500" s="212">
+        <f>F500-5000</f>
+        <v>46510</v>
       </c>
       <c r="I500" s="159" t="s">
         <v>11</v>
@@ -27304,7 +27435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="501" spans="1:18" s="158" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="157">
         <v>2000028</v>
       </c>
@@ -27314,8 +27445,18 @@
       <c r="C501" s="158">
         <v>3</v>
       </c>
+      <c r="D501" s="158">
+        <v>21</v>
+      </c>
       <c r="E501" s="158">
         <v>-1</v>
+      </c>
+      <c r="F501" s="212">
+        <v>52910</v>
+      </c>
+      <c r="G501" s="212">
+        <f>F501-1860</f>
+        <v>51050</v>
       </c>
       <c r="I501" s="159" t="s">
         <v>67</v>
@@ -27337,7 +27478,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="502" spans="1:18" s="158" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="157">
         <v>2000028</v>
       </c>
@@ -27352,6 +27493,13 @@
       </c>
       <c r="E502" s="158">
         <v>-1</v>
+      </c>
+      <c r="F502" s="212">
+        <v>51510</v>
+      </c>
+      <c r="G502" s="212">
+        <f>F502-5000</f>
+        <v>46510</v>
       </c>
       <c r="I502" s="159" t="s">
         <v>11</v>
@@ -27371,7 +27519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="503" spans="1:18" s="158" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="157">
         <v>2000028</v>
       </c>
@@ -27381,8 +27529,18 @@
       <c r="C503" s="158">
         <v>3</v>
       </c>
+      <c r="D503" s="158">
+        <v>23</v>
+      </c>
       <c r="E503" s="158">
         <v>-1</v>
+      </c>
+      <c r="F503" s="212">
+        <v>52910</v>
+      </c>
+      <c r="G503" s="212">
+        <f>F503-5310</f>
+        <v>47600</v>
       </c>
       <c r="I503" s="159" t="s">
         <v>67</v>
@@ -27404,7 +27562,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="504" spans="1:18" s="171" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:18" s="171" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="170">
         <v>2000028</v>
       </c>
@@ -27419,6 +27577,13 @@
       </c>
       <c r="E504" s="171">
         <v>-1</v>
+      </c>
+      <c r="F504" s="212">
+        <v>51510</v>
+      </c>
+      <c r="G504" s="212">
+        <f>F504-5000</f>
+        <v>46510</v>
       </c>
       <c r="I504" s="172" t="s">
         <v>11</v>
@@ -27438,7 +27603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="505" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="104">
         <v>2000028</v>
       </c>
@@ -27448,12 +27613,19 @@
       <c r="C505" s="2">
         <v>2</v>
       </c>
-      <c r="D505"/>
+      <c r="D505" s="158">
+        <v>41</v>
+      </c>
       <c r="E505" s="2">
         <v>1</v>
       </c>
-      <c r="F505"/>
-      <c r="G505"/>
+      <c r="F505" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G505" s="210">
+        <f>F505-2230</f>
+        <v>57170</v>
+      </c>
       <c r="H505"/>
       <c r="I505" s="2" t="s">
         <v>17</v>
@@ -27478,7 +27650,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="506" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="104">
         <v>2000028</v>
       </c>
@@ -27488,12 +27660,19 @@
       <c r="C506" s="2">
         <v>2</v>
       </c>
-      <c r="D506"/>
+      <c r="D506" s="158">
+        <v>41</v>
+      </c>
       <c r="E506" s="2">
         <v>1</v>
       </c>
-      <c r="F506"/>
-      <c r="G506"/>
+      <c r="F506" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G506" s="210">
+        <f t="shared" ref="G506:G515" si="13">F506-2230</f>
+        <v>57170</v>
+      </c>
       <c r="H506"/>
       <c r="I506" s="2" t="s">
         <v>17</v>
@@ -27518,7 +27697,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="507" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="104">
         <v>2000028</v>
       </c>
@@ -27528,12 +27707,19 @@
       <c r="C507" s="2">
         <v>2</v>
       </c>
-      <c r="D507"/>
+      <c r="D507" s="158">
+        <v>41</v>
+      </c>
       <c r="E507" s="2">
         <v>1</v>
       </c>
-      <c r="F507"/>
-      <c r="G507"/>
+      <c r="F507" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G507" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H507"/>
       <c r="I507" s="2" t="s">
         <v>17</v>
@@ -27558,7 +27744,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="508" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="104">
         <v>2000028</v>
       </c>
@@ -27568,12 +27754,19 @@
       <c r="C508" s="2">
         <v>2</v>
       </c>
-      <c r="D508"/>
+      <c r="D508" s="158">
+        <v>42</v>
+      </c>
       <c r="E508" s="2">
         <v>1</v>
       </c>
-      <c r="F508"/>
-      <c r="G508"/>
+      <c r="F508" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G508" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H508"/>
       <c r="I508" s="2" t="s">
         <v>17</v>
@@ -27598,7 +27791,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="509" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="104">
         <v>2000028</v>
       </c>
@@ -27608,12 +27801,19 @@
       <c r="C509" s="2">
         <v>2</v>
       </c>
-      <c r="D509"/>
+      <c r="D509" s="158">
+        <v>42</v>
+      </c>
       <c r="E509" s="2">
         <v>1</v>
       </c>
-      <c r="F509"/>
-      <c r="G509"/>
+      <c r="F509" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G509" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H509"/>
       <c r="I509" s="2" t="s">
         <v>17</v>
@@ -27638,7 +27838,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="510" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="104">
         <v>2000028</v>
       </c>
@@ -27648,12 +27848,19 @@
       <c r="C510" s="2">
         <v>2</v>
       </c>
-      <c r="D510"/>
+      <c r="D510" s="158">
+        <v>42</v>
+      </c>
       <c r="E510" s="2">
         <v>1</v>
       </c>
-      <c r="F510"/>
-      <c r="G510"/>
+      <c r="F510" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G510" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H510"/>
       <c r="I510" s="2" t="s">
         <v>17</v>
@@ -27678,7 +27885,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="511" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="104">
         <v>2000028</v>
       </c>
@@ -27688,12 +27895,19 @@
       <c r="C511" s="2">
         <v>2</v>
       </c>
-      <c r="D511"/>
+      <c r="D511" s="158">
+        <v>43</v>
+      </c>
       <c r="E511" s="2">
         <v>1</v>
       </c>
-      <c r="F511"/>
-      <c r="G511"/>
+      <c r="F511" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G511" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H511"/>
       <c r="I511" s="2" t="s">
         <v>17</v>
@@ -27718,7 +27932,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="512" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="104">
         <v>2000028</v>
       </c>
@@ -27728,12 +27942,19 @@
       <c r="C512" s="2">
         <v>2</v>
       </c>
-      <c r="D512"/>
+      <c r="D512" s="158">
+        <v>43</v>
+      </c>
       <c r="E512" s="2">
         <v>1</v>
       </c>
-      <c r="F512"/>
-      <c r="G512"/>
+      <c r="F512" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G512" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H512"/>
       <c r="I512" s="2" t="s">
         <v>17</v>
@@ -27758,7 +27979,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="513" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="104">
         <v>2000028</v>
       </c>
@@ -27768,12 +27989,19 @@
       <c r="C513" s="2">
         <v>2</v>
       </c>
-      <c r="D513"/>
+      <c r="D513" s="158">
+        <v>43</v>
+      </c>
       <c r="E513" s="2">
         <v>1</v>
       </c>
-      <c r="F513"/>
-      <c r="G513"/>
+      <c r="F513" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G513" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H513"/>
       <c r="I513" s="2" t="s">
         <v>17</v>
@@ -27798,7 +28026,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="514" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="104">
         <v>2000028</v>
       </c>
@@ -27808,12 +28036,19 @@
       <c r="C514" s="2">
         <v>2</v>
       </c>
-      <c r="D514"/>
+      <c r="D514" s="158">
+        <v>43</v>
+      </c>
       <c r="E514" s="2">
         <v>1</v>
       </c>
-      <c r="F514"/>
-      <c r="G514"/>
+      <c r="F514" s="210">
+        <v>59400</v>
+      </c>
+      <c r="G514" s="210">
+        <f t="shared" si="13"/>
+        <v>57170</v>
+      </c>
       <c r="H514"/>
       <c r="I514" s="2" t="s">
         <v>17</v>
@@ -27838,7 +28073,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="515" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="157">
         <v>2000028</v>
       </c>
@@ -27854,8 +28089,13 @@
       <c r="E515" s="158">
         <v>1</v>
       </c>
-      <c r="F515"/>
-      <c r="G515"/>
+      <c r="F515" s="210">
+        <v>20580</v>
+      </c>
+      <c r="G515" s="210">
+        <f>F515-5000</f>
+        <v>15580</v>
+      </c>
       <c r="H515"/>
       <c r="I515" s="158" t="s">
         <v>11</v>
@@ -27878,7 +28118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="516" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="157">
         <v>2000028</v>
       </c>
@@ -27888,12 +28128,19 @@
       <c r="C516" s="158">
         <v>3</v>
       </c>
-      <c r="D516" s="164"/>
+      <c r="D516" s="164">
+        <v>42</v>
+      </c>
       <c r="E516" s="158">
         <v>1</v>
       </c>
-      <c r="F516"/>
-      <c r="G516"/>
+      <c r="F516" s="210">
+        <v>19070</v>
+      </c>
+      <c r="G516" s="210">
+        <f>F516-1860</f>
+        <v>17210</v>
+      </c>
       <c r="H516"/>
       <c r="I516" s="158"/>
       <c r="J516" s="158" t="s">
@@ -27916,7 +28163,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="517" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="157">
         <v>2000028</v>
       </c>
@@ -27932,8 +28179,13 @@
       <c r="E517" s="158">
         <v>1</v>
       </c>
-      <c r="F517"/>
-      <c r="G517"/>
+      <c r="F517" s="210">
+        <v>20580</v>
+      </c>
+      <c r="G517" s="210">
+        <f>F517-5000</f>
+        <v>15580</v>
+      </c>
       <c r="H517"/>
       <c r="I517" s="158" t="s">
         <v>11</v>
@@ -27956,7 +28208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="518" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="157">
         <v>2000028</v>
       </c>
@@ -27966,12 +28218,19 @@
       <c r="C518" s="158">
         <v>3</v>
       </c>
-      <c r="D518" s="164"/>
+      <c r="D518" s="164">
+        <v>42</v>
+      </c>
       <c r="E518" s="158">
         <v>1</v>
       </c>
-      <c r="F518"/>
-      <c r="G518"/>
+      <c r="F518" s="210">
+        <v>19070</v>
+      </c>
+      <c r="G518" s="210">
+        <f>F518-1860</f>
+        <v>17210</v>
+      </c>
       <c r="H518"/>
       <c r="I518" s="158"/>
       <c r="J518" s="158" t="s">
@@ -27994,7 +28253,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="519" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="157">
         <v>2000028</v>
       </c>
@@ -28010,8 +28269,13 @@
       <c r="E519" s="158">
         <v>1</v>
       </c>
-      <c r="F519"/>
-      <c r="G519"/>
+      <c r="F519" s="210">
+        <v>20580</v>
+      </c>
+      <c r="G519" s="210">
+        <f>F519-5000</f>
+        <v>15580</v>
+      </c>
       <c r="H519"/>
       <c r="I519" s="158" t="s">
         <v>12</v>
@@ -28034,7 +28298,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="520" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="104">
         <v>2000028</v>
       </c>
@@ -28049,6 +28313,13 @@
       </c>
       <c r="E520" s="2">
         <v>-1</v>
+      </c>
+      <c r="F520" s="211">
+        <v>53490</v>
+      </c>
+      <c r="G520" s="211">
+        <f>F520-1000</f>
+        <v>52490</v>
       </c>
       <c r="I520" s="62" t="s">
         <v>18</v>
@@ -28070,7 +28341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="521" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="104">
         <v>2000028</v>
       </c>
@@ -28085,6 +28356,13 @@
       </c>
       <c r="E521" s="2">
         <v>-1</v>
+      </c>
+      <c r="F521" s="211">
+        <v>53240</v>
+      </c>
+      <c r="G521" s="211">
+        <f>F521-327</f>
+        <v>52913</v>
       </c>
       <c r="I521" s="15" t="s">
         <v>19</v>
@@ -28103,7 +28381,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="522" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="104">
         <v>2000028</v>
       </c>
@@ -28118,6 +28396,13 @@
       </c>
       <c r="E522" s="2">
         <v>-1</v>
+      </c>
+      <c r="F522" s="211">
+        <v>51680</v>
+      </c>
+      <c r="G522" s="211">
+        <f>F522-2000</f>
+        <v>49680</v>
       </c>
       <c r="I522" s="2" t="s">
         <v>11</v>
@@ -28136,7 +28421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="523" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="104">
         <v>2000028</v>
       </c>
@@ -28151,6 +28436,13 @@
       </c>
       <c r="E523" s="2">
         <v>-1</v>
+      </c>
+      <c r="F523" s="211">
+        <v>48870</v>
+      </c>
+      <c r="G523" s="211">
+        <f>F523-1333</f>
+        <v>47537</v>
       </c>
       <c r="K523" s="2" t="s">
         <v>7</v>
@@ -28166,7 +28458,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="524" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="104">
         <v>2000028</v>
       </c>
@@ -28176,8 +28468,17 @@
       <c r="C524" s="2">
         <v>2</v>
       </c>
+      <c r="D524" s="158">
+        <v>31</v>
+      </c>
       <c r="E524" s="2">
         <v>-1</v>
+      </c>
+      <c r="F524" s="211">
+        <v>55230</v>
+      </c>
+      <c r="G524" s="211">
+        <v>55230</v>
       </c>
       <c r="I524" s="15" t="s">
         <v>73</v>
@@ -28199,7 +28500,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="525" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="104">
         <v>2000028</v>
       </c>
@@ -28209,8 +28510,18 @@
       <c r="C525" s="2">
         <v>2</v>
       </c>
+      <c r="D525" s="158">
+        <v>31</v>
+      </c>
       <c r="E525" s="2">
         <v>-1</v>
+      </c>
+      <c r="F525" s="211">
+        <v>53670</v>
+      </c>
+      <c r="G525" s="211">
+        <f>F525-300</f>
+        <v>53370</v>
       </c>
       <c r="I525" s="15"/>
       <c r="J525" s="15"/>
@@ -28226,7 +28537,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="526" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="104">
         <v>2000028</v>
       </c>
@@ -28236,8 +28547,19 @@
       <c r="C526" s="2">
         <v>2</v>
       </c>
+      <c r="D526" s="158">
+        <v>31</v>
+      </c>
       <c r="E526" s="2">
         <v>-1</v>
+      </c>
+      <c r="F526" s="211">
+        <f>F525-300</f>
+        <v>53370</v>
+      </c>
+      <c r="G526" s="211">
+        <f t="shared" ref="G526:G527" si="14">F526-300</f>
+        <v>53070</v>
       </c>
       <c r="I526" s="15"/>
       <c r="J526" s="15"/>
@@ -28253,7 +28575,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="527" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="104">
         <v>2000028</v>
       </c>
@@ -28263,8 +28585,19 @@
       <c r="C527" s="2">
         <v>2</v>
       </c>
+      <c r="D527" s="158">
+        <v>31</v>
+      </c>
       <c r="E527" s="2">
         <v>-1</v>
+      </c>
+      <c r="F527" s="211">
+        <f>F526-300</f>
+        <v>53070</v>
+      </c>
+      <c r="G527" s="211">
+        <f t="shared" si="14"/>
+        <v>52770</v>
       </c>
       <c r="I527" s="15"/>
       <c r="J527" s="15"/>
@@ -28280,7 +28613,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="528" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="104">
         <v>2000028</v>
       </c>
@@ -28290,8 +28623,18 @@
       <c r="C528" s="2">
         <v>2</v>
       </c>
+      <c r="D528" s="158">
+        <v>31</v>
+      </c>
       <c r="E528" s="2">
         <v>-1</v>
+      </c>
+      <c r="F528" s="211">
+        <v>52000</v>
+      </c>
+      <c r="G528" s="211">
+        <f>F528-400</f>
+        <v>51600</v>
       </c>
       <c r="I528" s="15" t="s">
         <v>99</v>
@@ -28309,7 +28652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="529" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="104">
         <v>2000028</v>
       </c>
@@ -28319,8 +28662,19 @@
       <c r="C529" s="2">
         <v>2</v>
       </c>
+      <c r="D529" s="158">
+        <v>31</v>
+      </c>
       <c r="E529" s="2">
         <v>-1</v>
+      </c>
+      <c r="F529" s="211">
+        <f>F528-400</f>
+        <v>51600</v>
+      </c>
+      <c r="G529" s="211">
+        <f t="shared" ref="G529:G592" si="15">F529-400</f>
+        <v>51200</v>
       </c>
       <c r="I529" s="15" t="s">
         <v>99</v>
@@ -28338,7 +28692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="530" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="104">
         <v>2000028</v>
       </c>
@@ -28348,8 +28702,19 @@
       <c r="C530" s="2">
         <v>2</v>
       </c>
+      <c r="D530" s="158">
+        <v>31</v>
+      </c>
       <c r="E530" s="2">
         <v>-1</v>
+      </c>
+      <c r="F530" s="211">
+        <f t="shared" ref="F530:F593" si="16">F529-400</f>
+        <v>51200</v>
+      </c>
+      <c r="G530" s="211">
+        <f t="shared" si="15"/>
+        <v>50800</v>
       </c>
       <c r="I530" s="15" t="s">
         <v>99</v>
@@ -28367,7 +28732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="531" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="104">
         <v>2000028</v>
       </c>
@@ -28377,8 +28742,19 @@
       <c r="C531" s="2">
         <v>2</v>
       </c>
+      <c r="D531" s="158">
+        <v>31</v>
+      </c>
       <c r="E531" s="2">
         <v>-1</v>
+      </c>
+      <c r="F531" s="211">
+        <f t="shared" si="16"/>
+        <v>50800</v>
+      </c>
+      <c r="G531" s="211">
+        <f t="shared" si="15"/>
+        <v>50400</v>
       </c>
       <c r="I531" s="15" t="s">
         <v>99</v>
@@ -28396,7 +28772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="104">
         <v>2000028</v>
       </c>
@@ -28406,8 +28782,19 @@
       <c r="C532" s="2">
         <v>2</v>
       </c>
+      <c r="D532" s="158">
+        <v>31</v>
+      </c>
       <c r="E532" s="2">
         <v>-1</v>
+      </c>
+      <c r="F532" s="211">
+        <f t="shared" si="16"/>
+        <v>50400</v>
+      </c>
+      <c r="G532" s="211">
+        <f t="shared" si="15"/>
+        <v>50000</v>
       </c>
       <c r="I532" s="15" t="s">
         <v>99</v>
@@ -28425,7 +28812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="533" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="104">
         <v>2000028</v>
       </c>
@@ -28435,8 +28822,19 @@
       <c r="C533" s="2">
         <v>2</v>
       </c>
+      <c r="D533" s="158">
+        <v>31</v>
+      </c>
       <c r="E533" s="2">
         <v>-1</v>
+      </c>
+      <c r="F533" s="211">
+        <f t="shared" si="16"/>
+        <v>50000</v>
+      </c>
+      <c r="G533" s="211">
+        <f t="shared" si="15"/>
+        <v>49600</v>
       </c>
       <c r="I533" s="15" t="s">
         <v>99</v>
@@ -28454,7 +28852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="534" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="104">
         <v>2000028</v>
       </c>
@@ -28464,8 +28862,19 @@
       <c r="C534" s="2">
         <v>2</v>
       </c>
+      <c r="D534" s="158">
+        <v>31</v>
+      </c>
       <c r="E534" s="2">
         <v>-1</v>
+      </c>
+      <c r="F534" s="211">
+        <f t="shared" si="16"/>
+        <v>49600</v>
+      </c>
+      <c r="G534" s="211">
+        <f t="shared" si="15"/>
+        <v>49200</v>
       </c>
       <c r="I534" s="15" t="s">
         <v>99</v>
@@ -28483,7 +28892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="535" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="104">
         <v>2000028</v>
       </c>
@@ -28493,8 +28902,19 @@
       <c r="C535" s="2">
         <v>2</v>
       </c>
+      <c r="D535" s="158">
+        <v>31</v>
+      </c>
       <c r="E535" s="2">
         <v>-1</v>
+      </c>
+      <c r="F535" s="211">
+        <f t="shared" si="16"/>
+        <v>49200</v>
+      </c>
+      <c r="G535" s="211">
+        <f t="shared" si="15"/>
+        <v>48800</v>
       </c>
       <c r="I535" s="15" t="s">
         <v>99</v>
@@ -28512,7 +28932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="536" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="104">
         <v>2000028</v>
       </c>
@@ -28522,8 +28942,19 @@
       <c r="C536" s="2">
         <v>2</v>
       </c>
+      <c r="D536" s="158">
+        <v>31</v>
+      </c>
       <c r="E536" s="2">
         <v>-1</v>
+      </c>
+      <c r="F536" s="211">
+        <f t="shared" si="16"/>
+        <v>48800</v>
+      </c>
+      <c r="G536" s="211">
+        <f t="shared" si="15"/>
+        <v>48400</v>
       </c>
       <c r="I536" s="15" t="s">
         <v>99</v>
@@ -28541,7 +28972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="537" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="104">
         <v>2000028</v>
       </c>
@@ -28551,8 +28982,19 @@
       <c r="C537" s="2">
         <v>2</v>
       </c>
+      <c r="D537" s="158">
+        <v>31</v>
+      </c>
       <c r="E537" s="2">
         <v>-1</v>
+      </c>
+      <c r="F537" s="211">
+        <f t="shared" si="16"/>
+        <v>48400</v>
+      </c>
+      <c r="G537" s="211">
+        <f t="shared" si="15"/>
+        <v>48000</v>
       </c>
       <c r="I537" s="15" t="s">
         <v>99</v>
@@ -28570,7 +29012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="538" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="104">
         <v>2000028</v>
       </c>
@@ -28580,8 +29022,19 @@
       <c r="C538" s="2">
         <v>2</v>
       </c>
+      <c r="D538" s="158">
+        <v>31</v>
+      </c>
       <c r="E538" s="2">
         <v>-1</v>
+      </c>
+      <c r="F538" s="211">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="G538" s="211">
+        <f t="shared" si="15"/>
+        <v>47600</v>
       </c>
       <c r="I538" s="15" t="s">
         <v>99</v>
@@ -28599,7 +29052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="539" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="104">
         <v>2000028</v>
       </c>
@@ -28609,8 +29062,19 @@
       <c r="C539" s="2">
         <v>2</v>
       </c>
+      <c r="D539" s="158">
+        <v>31</v>
+      </c>
       <c r="E539" s="2">
         <v>-1</v>
+      </c>
+      <c r="F539" s="211">
+        <f t="shared" si="16"/>
+        <v>47600</v>
+      </c>
+      <c r="G539" s="211">
+        <f t="shared" si="15"/>
+        <v>47200</v>
       </c>
       <c r="I539" s="15" t="s">
         <v>99</v>
@@ -28628,7 +29092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="540" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="104">
         <v>2000028</v>
       </c>
@@ -28638,8 +29102,19 @@
       <c r="C540" s="2">
         <v>2</v>
       </c>
+      <c r="D540" s="158">
+        <v>31</v>
+      </c>
       <c r="E540" s="2">
         <v>-1</v>
+      </c>
+      <c r="F540" s="211">
+        <f t="shared" si="16"/>
+        <v>47200</v>
+      </c>
+      <c r="G540" s="211">
+        <f t="shared" si="15"/>
+        <v>46800</v>
       </c>
       <c r="I540" s="15" t="s">
         <v>99</v>
@@ -28657,7 +29132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="104">
         <v>2000028</v>
       </c>
@@ -28667,8 +29142,19 @@
       <c r="C541" s="2">
         <v>2</v>
       </c>
+      <c r="D541" s="158">
+        <v>31</v>
+      </c>
       <c r="E541" s="2">
         <v>-1</v>
+      </c>
+      <c r="F541" s="211">
+        <f t="shared" si="16"/>
+        <v>46800</v>
+      </c>
+      <c r="G541" s="211">
+        <f t="shared" si="15"/>
+        <v>46400</v>
       </c>
       <c r="I541" s="15" t="s">
         <v>99</v>
@@ -28686,7 +29172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="542" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="104">
         <v>2000028</v>
       </c>
@@ -28696,8 +29182,19 @@
       <c r="C542" s="2">
         <v>2</v>
       </c>
+      <c r="D542" s="158">
+        <v>31</v>
+      </c>
       <c r="E542" s="2">
         <v>-1</v>
+      </c>
+      <c r="F542" s="211">
+        <f t="shared" si="16"/>
+        <v>46400</v>
+      </c>
+      <c r="G542" s="211">
+        <f t="shared" si="15"/>
+        <v>46000</v>
       </c>
       <c r="I542" s="15" t="s">
         <v>99</v>
@@ -28715,7 +29212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="543" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="104">
         <v>2000028</v>
       </c>
@@ -28725,8 +29222,19 @@
       <c r="C543" s="2">
         <v>2</v>
       </c>
+      <c r="D543" s="158">
+        <v>31</v>
+      </c>
       <c r="E543" s="2">
         <v>-1</v>
+      </c>
+      <c r="F543" s="211">
+        <f t="shared" si="16"/>
+        <v>46000</v>
+      </c>
+      <c r="G543" s="211">
+        <f t="shared" si="15"/>
+        <v>45600</v>
       </c>
       <c r="I543" s="15" t="s">
         <v>99</v>
@@ -28744,7 +29252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="544" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="104">
         <v>2000028</v>
       </c>
@@ -28754,8 +29262,19 @@
       <c r="C544" s="2">
         <v>2</v>
       </c>
+      <c r="D544" s="158">
+        <v>31</v>
+      </c>
       <c r="E544" s="2">
         <v>-1</v>
+      </c>
+      <c r="F544" s="211">
+        <f t="shared" si="16"/>
+        <v>45600</v>
+      </c>
+      <c r="G544" s="211">
+        <f t="shared" si="15"/>
+        <v>45200</v>
       </c>
       <c r="I544" s="15" t="s">
         <v>99</v>
@@ -28773,7 +29292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="545" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="104">
         <v>2000028</v>
       </c>
@@ -28783,8 +29302,19 @@
       <c r="C545" s="2">
         <v>2</v>
       </c>
+      <c r="D545" s="158">
+        <v>31</v>
+      </c>
       <c r="E545" s="2">
         <v>-1</v>
+      </c>
+      <c r="F545" s="211">
+        <f t="shared" si="16"/>
+        <v>45200</v>
+      </c>
+      <c r="G545" s="211">
+        <f t="shared" si="15"/>
+        <v>44800</v>
       </c>
       <c r="I545" s="15" t="s">
         <v>99</v>
@@ -28802,7 +29332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="546" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="104">
         <v>2000028</v>
       </c>
@@ -28812,8 +29342,19 @@
       <c r="C546" s="2">
         <v>2</v>
       </c>
+      <c r="D546" s="158">
+        <v>31</v>
+      </c>
       <c r="E546" s="2">
         <v>-1</v>
+      </c>
+      <c r="F546" s="211">
+        <f t="shared" si="16"/>
+        <v>44800</v>
+      </c>
+      <c r="G546" s="211">
+        <f t="shared" si="15"/>
+        <v>44400</v>
       </c>
       <c r="I546" s="15" t="s">
         <v>99</v>
@@ -28831,7 +29372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="547" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="104">
         <v>2000028</v>
       </c>
@@ -28841,8 +29382,19 @@
       <c r="C547" s="2">
         <v>2</v>
       </c>
+      <c r="D547" s="158">
+        <v>31</v>
+      </c>
       <c r="E547" s="2">
         <v>-1</v>
+      </c>
+      <c r="F547" s="211">
+        <f t="shared" si="16"/>
+        <v>44400</v>
+      </c>
+      <c r="G547" s="211">
+        <f t="shared" si="15"/>
+        <v>44000</v>
       </c>
       <c r="I547" s="15" t="s">
         <v>99</v>
@@ -28860,7 +29412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="548" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="104">
         <v>2000028</v>
       </c>
@@ -28870,8 +29422,19 @@
       <c r="C548" s="2">
         <v>2</v>
       </c>
+      <c r="D548" s="158">
+        <v>31</v>
+      </c>
       <c r="E548" s="2">
         <v>-1</v>
+      </c>
+      <c r="F548" s="211">
+        <f t="shared" si="16"/>
+        <v>44000</v>
+      </c>
+      <c r="G548" s="211">
+        <f t="shared" si="15"/>
+        <v>43600</v>
       </c>
       <c r="I548" s="15" t="s">
         <v>99</v>
@@ -28889,7 +29452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="549" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="104">
         <v>2000028</v>
       </c>
@@ -28899,8 +29462,19 @@
       <c r="C549" s="2">
         <v>2</v>
       </c>
+      <c r="D549" s="158">
+        <v>31</v>
+      </c>
       <c r="E549" s="2">
         <v>-1</v>
+      </c>
+      <c r="F549" s="211">
+        <f t="shared" si="16"/>
+        <v>43600</v>
+      </c>
+      <c r="G549" s="211">
+        <f t="shared" si="15"/>
+        <v>43200</v>
       </c>
       <c r="I549" s="15" t="s">
         <v>99</v>
@@ -28918,7 +29492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="550" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="104">
         <v>2000028</v>
       </c>
@@ -28928,8 +29502,19 @@
       <c r="C550" s="2">
         <v>2</v>
       </c>
+      <c r="D550" s="158">
+        <v>31</v>
+      </c>
       <c r="E550" s="2">
         <v>-1</v>
+      </c>
+      <c r="F550" s="211">
+        <f t="shared" si="16"/>
+        <v>43200</v>
+      </c>
+      <c r="G550" s="211">
+        <f t="shared" si="15"/>
+        <v>42800</v>
       </c>
       <c r="I550" s="15" t="s">
         <v>99</v>
@@ -28947,7 +29532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="551" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="104">
         <v>2000028</v>
       </c>
@@ -28957,8 +29542,19 @@
       <c r="C551" s="2">
         <v>2</v>
       </c>
+      <c r="D551" s="158">
+        <v>31</v>
+      </c>
       <c r="E551" s="2">
         <v>-1</v>
+      </c>
+      <c r="F551" s="211">
+        <f t="shared" si="16"/>
+        <v>42800</v>
+      </c>
+      <c r="G551" s="211">
+        <f t="shared" si="15"/>
+        <v>42400</v>
       </c>
       <c r="I551" s="15" t="s">
         <v>99</v>
@@ -28976,7 +29572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="552" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="104">
         <v>2000028</v>
       </c>
@@ -28986,8 +29582,19 @@
       <c r="C552" s="2">
         <v>2</v>
       </c>
+      <c r="D552" s="158">
+        <v>31</v>
+      </c>
       <c r="E552" s="2">
         <v>-1</v>
+      </c>
+      <c r="F552" s="211">
+        <f t="shared" si="16"/>
+        <v>42400</v>
+      </c>
+      <c r="G552" s="211">
+        <f t="shared" si="15"/>
+        <v>42000</v>
       </c>
       <c r="I552" s="15" t="s">
         <v>99</v>
@@ -29005,7 +29612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="553" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="104">
         <v>2000028</v>
       </c>
@@ -29015,8 +29622,19 @@
       <c r="C553" s="2">
         <v>2</v>
       </c>
+      <c r="D553" s="158">
+        <v>31</v>
+      </c>
       <c r="E553" s="2">
         <v>-1</v>
+      </c>
+      <c r="F553" s="211">
+        <f t="shared" si="16"/>
+        <v>42000</v>
+      </c>
+      <c r="G553" s="211">
+        <f t="shared" si="15"/>
+        <v>41600</v>
       </c>
       <c r="I553" s="15" t="s">
         <v>99</v>
@@ -29034,7 +29652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="554" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="104">
         <v>2000028</v>
       </c>
@@ -29044,8 +29662,19 @@
       <c r="C554" s="2">
         <v>2</v>
       </c>
+      <c r="D554" s="158">
+        <v>31</v>
+      </c>
       <c r="E554" s="2">
         <v>-1</v>
+      </c>
+      <c r="F554" s="211">
+        <f t="shared" si="16"/>
+        <v>41600</v>
+      </c>
+      <c r="G554" s="211">
+        <f t="shared" si="15"/>
+        <v>41200</v>
       </c>
       <c r="I554" s="15" t="s">
         <v>99</v>
@@ -29063,7 +29692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="555" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="104">
         <v>2000028</v>
       </c>
@@ -29073,8 +29702,19 @@
       <c r="C555" s="2">
         <v>2</v>
       </c>
+      <c r="D555" s="158">
+        <v>31</v>
+      </c>
       <c r="E555" s="2">
         <v>-1</v>
+      </c>
+      <c r="F555" s="211">
+        <f t="shared" si="16"/>
+        <v>41200</v>
+      </c>
+      <c r="G555" s="211">
+        <f t="shared" si="15"/>
+        <v>40800</v>
       </c>
       <c r="I555" s="15" t="s">
         <v>99</v>
@@ -29092,7 +29732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="556" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="104">
         <v>2000028</v>
       </c>
@@ -29102,8 +29742,19 @@
       <c r="C556" s="2">
         <v>2</v>
       </c>
+      <c r="D556" s="158">
+        <v>31</v>
+      </c>
       <c r="E556" s="2">
         <v>-1</v>
+      </c>
+      <c r="F556" s="211">
+        <f t="shared" si="16"/>
+        <v>40800</v>
+      </c>
+      <c r="G556" s="211">
+        <f t="shared" si="15"/>
+        <v>40400</v>
       </c>
       <c r="I556" s="15" t="s">
         <v>99</v>
@@ -29121,7 +29772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="557" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="104">
         <v>2000028</v>
       </c>
@@ -29131,8 +29782,19 @@
       <c r="C557" s="2">
         <v>2</v>
       </c>
+      <c r="D557" s="158">
+        <v>31</v>
+      </c>
       <c r="E557" s="2">
         <v>-1</v>
+      </c>
+      <c r="F557" s="211">
+        <f t="shared" si="16"/>
+        <v>40400</v>
+      </c>
+      <c r="G557" s="211">
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="I557" s="15" t="s">
         <v>99</v>
@@ -29150,7 +29812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="558" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="104">
         <v>2000028</v>
       </c>
@@ -29160,8 +29822,19 @@
       <c r="C558" s="2">
         <v>2</v>
       </c>
+      <c r="D558" s="158">
+        <v>31</v>
+      </c>
       <c r="E558" s="2">
         <v>-1</v>
+      </c>
+      <c r="F558" s="211">
+        <f t="shared" si="16"/>
+        <v>40000</v>
+      </c>
+      <c r="G558" s="211">
+        <f t="shared" si="15"/>
+        <v>39600</v>
       </c>
       <c r="I558" s="15" t="s">
         <v>99</v>
@@ -29179,7 +29852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="559" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="104">
         <v>2000028</v>
       </c>
@@ -29189,8 +29862,19 @@
       <c r="C559" s="2">
         <v>2</v>
       </c>
+      <c r="D559" s="158">
+        <v>31</v>
+      </c>
       <c r="E559" s="2">
         <v>-1</v>
+      </c>
+      <c r="F559" s="211">
+        <f t="shared" si="16"/>
+        <v>39600</v>
+      </c>
+      <c r="G559" s="211">
+        <f t="shared" si="15"/>
+        <v>39200</v>
       </c>
       <c r="I559" s="15" t="s">
         <v>99</v>
@@ -29208,7 +29892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="560" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="104">
         <v>2000028</v>
       </c>
@@ -29218,8 +29902,19 @@
       <c r="C560" s="2">
         <v>2</v>
       </c>
+      <c r="D560" s="158">
+        <v>31</v>
+      </c>
       <c r="E560" s="2">
         <v>-1</v>
+      </c>
+      <c r="F560" s="211">
+        <f t="shared" si="16"/>
+        <v>39200</v>
+      </c>
+      <c r="G560" s="211">
+        <f t="shared" si="15"/>
+        <v>38800</v>
       </c>
       <c r="I560" s="15" t="s">
         <v>99</v>
@@ -29237,7 +29932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="561" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="104">
         <v>2000028</v>
       </c>
@@ -29247,8 +29942,19 @@
       <c r="C561" s="2">
         <v>2</v>
       </c>
+      <c r="D561" s="158">
+        <v>31</v>
+      </c>
       <c r="E561" s="2">
         <v>-1</v>
+      </c>
+      <c r="F561" s="211">
+        <f t="shared" si="16"/>
+        <v>38800</v>
+      </c>
+      <c r="G561" s="211">
+        <f t="shared" si="15"/>
+        <v>38400</v>
       </c>
       <c r="I561" s="15" t="s">
         <v>99</v>
@@ -29266,7 +29972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="562" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="104">
         <v>2000028</v>
       </c>
@@ -29276,8 +29982,19 @@
       <c r="C562" s="2">
         <v>2</v>
       </c>
+      <c r="D562" s="158">
+        <v>31</v>
+      </c>
       <c r="E562" s="2">
         <v>-1</v>
+      </c>
+      <c r="F562" s="211">
+        <f t="shared" si="16"/>
+        <v>38400</v>
+      </c>
+      <c r="G562" s="211">
+        <f t="shared" si="15"/>
+        <v>38000</v>
       </c>
       <c r="I562" s="15" t="s">
         <v>99</v>
@@ -29295,7 +30012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="563" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="104">
         <v>2000028</v>
       </c>
@@ -29305,8 +30022,19 @@
       <c r="C563" s="2">
         <v>2</v>
       </c>
+      <c r="D563" s="158">
+        <v>31</v>
+      </c>
       <c r="E563" s="2">
         <v>-1</v>
+      </c>
+      <c r="F563" s="211">
+        <f t="shared" si="16"/>
+        <v>38000</v>
+      </c>
+      <c r="G563" s="211">
+        <f t="shared" si="15"/>
+        <v>37600</v>
       </c>
       <c r="I563" s="15" t="s">
         <v>99</v>
@@ -29324,7 +30052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="564" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="104">
         <v>2000028</v>
       </c>
@@ -29334,8 +30062,19 @@
       <c r="C564" s="2">
         <v>2</v>
       </c>
+      <c r="D564" s="158">
+        <v>31</v>
+      </c>
       <c r="E564" s="2">
         <v>-1</v>
+      </c>
+      <c r="F564" s="211">
+        <f t="shared" si="16"/>
+        <v>37600</v>
+      </c>
+      <c r="G564" s="211">
+        <f t="shared" si="15"/>
+        <v>37200</v>
       </c>
       <c r="I564" s="15" t="s">
         <v>99</v>
@@ -29353,7 +30092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="565" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="104">
         <v>2000028</v>
       </c>
@@ -29363,8 +30102,19 @@
       <c r="C565" s="2">
         <v>2</v>
       </c>
+      <c r="D565" s="158">
+        <v>31</v>
+      </c>
       <c r="E565" s="2">
         <v>-1</v>
+      </c>
+      <c r="F565" s="211">
+        <f t="shared" si="16"/>
+        <v>37200</v>
+      </c>
+      <c r="G565" s="211">
+        <f t="shared" si="15"/>
+        <v>36800</v>
       </c>
       <c r="I565" s="15" t="s">
         <v>99</v>
@@ -29382,7 +30132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="566" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="104">
         <v>2000028</v>
       </c>
@@ -29392,8 +30142,19 @@
       <c r="C566" s="2">
         <v>2</v>
       </c>
+      <c r="D566" s="158">
+        <v>31</v>
+      </c>
       <c r="E566" s="2">
         <v>-1</v>
+      </c>
+      <c r="F566" s="211">
+        <f t="shared" si="16"/>
+        <v>36800</v>
+      </c>
+      <c r="G566" s="211">
+        <f t="shared" si="15"/>
+        <v>36400</v>
       </c>
       <c r="I566" s="15" t="s">
         <v>99</v>
@@ -29411,7 +30172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="567" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="104">
         <v>2000028</v>
       </c>
@@ -29421,8 +30182,19 @@
       <c r="C567" s="2">
         <v>2</v>
       </c>
+      <c r="D567" s="158">
+        <v>31</v>
+      </c>
       <c r="E567" s="2">
         <v>-1</v>
+      </c>
+      <c r="F567" s="211">
+        <f t="shared" si="16"/>
+        <v>36400</v>
+      </c>
+      <c r="G567" s="211">
+        <f t="shared" si="15"/>
+        <v>36000</v>
       </c>
       <c r="I567" s="15" t="s">
         <v>99</v>
@@ -29440,7 +30212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="568" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="104">
         <v>2000028</v>
       </c>
@@ -29450,8 +30222,19 @@
       <c r="C568" s="2">
         <v>2</v>
       </c>
+      <c r="D568" s="158">
+        <v>31</v>
+      </c>
       <c r="E568" s="2">
         <v>-1</v>
+      </c>
+      <c r="F568" s="211">
+        <f t="shared" si="16"/>
+        <v>36000</v>
+      </c>
+      <c r="G568" s="211">
+        <f t="shared" si="15"/>
+        <v>35600</v>
       </c>
       <c r="I568" s="15" t="s">
         <v>99</v>
@@ -29469,7 +30252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="569" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="104">
         <v>2000028</v>
       </c>
@@ -29479,8 +30262,19 @@
       <c r="C569" s="2">
         <v>2</v>
       </c>
+      <c r="D569" s="158">
+        <v>31</v>
+      </c>
       <c r="E569" s="2">
         <v>-1</v>
+      </c>
+      <c r="F569" s="211">
+        <f t="shared" si="16"/>
+        <v>35600</v>
+      </c>
+      <c r="G569" s="211">
+        <f t="shared" si="15"/>
+        <v>35200</v>
       </c>
       <c r="I569" s="15" t="s">
         <v>99</v>
@@ -29498,7 +30292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="570" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="104">
         <v>2000028</v>
       </c>
@@ -29508,8 +30302,19 @@
       <c r="C570" s="2">
         <v>2</v>
       </c>
+      <c r="D570" s="158">
+        <v>31</v>
+      </c>
       <c r="E570" s="2">
         <v>-1</v>
+      </c>
+      <c r="F570" s="211">
+        <f t="shared" si="16"/>
+        <v>35200</v>
+      </c>
+      <c r="G570" s="211">
+        <f t="shared" si="15"/>
+        <v>34800</v>
       </c>
       <c r="I570" s="15" t="s">
         <v>99</v>
@@ -29527,7 +30332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="571" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="104">
         <v>2000028</v>
       </c>
@@ -29537,8 +30342,19 @@
       <c r="C571" s="2">
         <v>2</v>
       </c>
+      <c r="D571" s="158">
+        <v>31</v>
+      </c>
       <c r="E571" s="2">
         <v>-1</v>
+      </c>
+      <c r="F571" s="211">
+        <f t="shared" si="16"/>
+        <v>34800</v>
+      </c>
+      <c r="G571" s="211">
+        <f t="shared" si="15"/>
+        <v>34400</v>
       </c>
       <c r="I571" s="15" t="s">
         <v>99</v>
@@ -29556,7 +30372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="572" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="104">
         <v>2000028</v>
       </c>
@@ -29566,8 +30382,19 @@
       <c r="C572" s="2">
         <v>2</v>
       </c>
+      <c r="D572" s="158">
+        <v>31</v>
+      </c>
       <c r="E572" s="2">
         <v>-1</v>
+      </c>
+      <c r="F572" s="211">
+        <f t="shared" si="16"/>
+        <v>34400</v>
+      </c>
+      <c r="G572" s="211">
+        <f t="shared" si="15"/>
+        <v>34000</v>
       </c>
       <c r="I572" s="15" t="s">
         <v>99</v>
@@ -29585,7 +30412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="573" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="104">
         <v>2000028</v>
       </c>
@@ -29595,8 +30422,19 @@
       <c r="C573" s="2">
         <v>2</v>
       </c>
+      <c r="D573" s="158">
+        <v>31</v>
+      </c>
       <c r="E573" s="2">
         <v>-1</v>
+      </c>
+      <c r="F573" s="211">
+        <f t="shared" si="16"/>
+        <v>34000</v>
+      </c>
+      <c r="G573" s="211">
+        <f t="shared" si="15"/>
+        <v>33600</v>
       </c>
       <c r="I573" s="15" t="s">
         <v>99</v>
@@ -29614,7 +30452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="574" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="104">
         <v>2000028</v>
       </c>
@@ -29624,8 +30462,19 @@
       <c r="C574" s="2">
         <v>2</v>
       </c>
+      <c r="D574" s="158">
+        <v>31</v>
+      </c>
       <c r="E574" s="2">
         <v>-1</v>
+      </c>
+      <c r="F574" s="211">
+        <f t="shared" si="16"/>
+        <v>33600</v>
+      </c>
+      <c r="G574" s="211">
+        <f t="shared" si="15"/>
+        <v>33200</v>
       </c>
       <c r="I574" s="15" t="s">
         <v>99</v>
@@ -29643,7 +30492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="575" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="104">
         <v>2000028</v>
       </c>
@@ -29653,8 +30502,19 @@
       <c r="C575" s="2">
         <v>2</v>
       </c>
+      <c r="D575" s="158">
+        <v>31</v>
+      </c>
       <c r="E575" s="2">
         <v>-1</v>
+      </c>
+      <c r="F575" s="211">
+        <f t="shared" si="16"/>
+        <v>33200</v>
+      </c>
+      <c r="G575" s="211">
+        <f t="shared" si="15"/>
+        <v>32800</v>
       </c>
       <c r="I575" s="15" t="s">
         <v>99</v>
@@ -29672,7 +30532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="576" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="104">
         <v>2000028</v>
       </c>
@@ -29682,8 +30542,19 @@
       <c r="C576" s="2">
         <v>2</v>
       </c>
+      <c r="D576" s="158">
+        <v>31</v>
+      </c>
       <c r="E576" s="2">
         <v>-1</v>
+      </c>
+      <c r="F576" s="211">
+        <f t="shared" si="16"/>
+        <v>32800</v>
+      </c>
+      <c r="G576" s="211">
+        <f t="shared" si="15"/>
+        <v>32400</v>
       </c>
       <c r="I576" s="15" t="s">
         <v>99</v>
@@ -29701,7 +30572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="577" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="104">
         <v>2000028</v>
       </c>
@@ -29711,8 +30582,19 @@
       <c r="C577" s="2">
         <v>2</v>
       </c>
+      <c r="D577" s="158">
+        <v>31</v>
+      </c>
       <c r="E577" s="2">
         <v>-1</v>
+      </c>
+      <c r="F577" s="211">
+        <f t="shared" si="16"/>
+        <v>32400</v>
+      </c>
+      <c r="G577" s="211">
+        <f t="shared" si="15"/>
+        <v>32000</v>
       </c>
       <c r="I577" s="15" t="s">
         <v>99</v>
@@ -29730,7 +30612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="578" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="104">
         <v>2000028</v>
       </c>
@@ -29740,8 +30622,19 @@
       <c r="C578" s="2">
         <v>2</v>
       </c>
+      <c r="D578" s="158">
+        <v>31</v>
+      </c>
       <c r="E578" s="2">
         <v>-1</v>
+      </c>
+      <c r="F578" s="211">
+        <f t="shared" si="16"/>
+        <v>32000</v>
+      </c>
+      <c r="G578" s="211">
+        <f t="shared" si="15"/>
+        <v>31600</v>
       </c>
       <c r="I578" s="15" t="s">
         <v>99</v>
@@ -29759,7 +30652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="579" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="104">
         <v>2000028</v>
       </c>
@@ -29769,8 +30662,19 @@
       <c r="C579" s="2">
         <v>2</v>
       </c>
+      <c r="D579" s="158">
+        <v>31</v>
+      </c>
       <c r="E579" s="2">
         <v>-1</v>
+      </c>
+      <c r="F579" s="211">
+        <f t="shared" si="16"/>
+        <v>31600</v>
+      </c>
+      <c r="G579" s="211">
+        <f t="shared" si="15"/>
+        <v>31200</v>
       </c>
       <c r="I579" s="15" t="s">
         <v>99</v>
@@ -29788,7 +30692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="580" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="104">
         <v>2000028</v>
       </c>
@@ -29798,8 +30702,19 @@
       <c r="C580" s="2">
         <v>2</v>
       </c>
+      <c r="D580" s="158">
+        <v>31</v>
+      </c>
       <c r="E580" s="2">
         <v>-1</v>
+      </c>
+      <c r="F580" s="211">
+        <f t="shared" si="16"/>
+        <v>31200</v>
+      </c>
+      <c r="G580" s="211">
+        <f t="shared" si="15"/>
+        <v>30800</v>
       </c>
       <c r="I580" s="15" t="s">
         <v>99</v>
@@ -29817,7 +30732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="581" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="104">
         <v>2000028</v>
       </c>
@@ -29827,8 +30742,19 @@
       <c r="C581" s="2">
         <v>2</v>
       </c>
+      <c r="D581" s="158">
+        <v>31</v>
+      </c>
       <c r="E581" s="2">
         <v>-1</v>
+      </c>
+      <c r="F581" s="211">
+        <f t="shared" si="16"/>
+        <v>30800</v>
+      </c>
+      <c r="G581" s="211">
+        <f t="shared" si="15"/>
+        <v>30400</v>
       </c>
       <c r="I581" s="15" t="s">
         <v>99</v>
@@ -29846,7 +30772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="582" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="104">
         <v>2000028</v>
       </c>
@@ -29856,8 +30782,19 @@
       <c r="C582" s="2">
         <v>2</v>
       </c>
+      <c r="D582" s="158">
+        <v>31</v>
+      </c>
       <c r="E582" s="2">
         <v>-1</v>
+      </c>
+      <c r="F582" s="211">
+        <f t="shared" si="16"/>
+        <v>30400</v>
+      </c>
+      <c r="G582" s="211">
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="I582" s="15" t="s">
         <v>99</v>
@@ -29875,7 +30812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="583" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="104">
         <v>2000028</v>
       </c>
@@ -29885,8 +30822,19 @@
       <c r="C583" s="2">
         <v>2</v>
       </c>
+      <c r="D583" s="158">
+        <v>31</v>
+      </c>
       <c r="E583" s="2">
         <v>-1</v>
+      </c>
+      <c r="F583" s="211">
+        <f t="shared" si="16"/>
+        <v>30000</v>
+      </c>
+      <c r="G583" s="211">
+        <f t="shared" si="15"/>
+        <v>29600</v>
       </c>
       <c r="I583" s="15" t="s">
         <v>99</v>
@@ -29904,7 +30852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="584" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="104">
         <v>2000028</v>
       </c>
@@ -29914,8 +30862,19 @@
       <c r="C584" s="2">
         <v>2</v>
       </c>
+      <c r="D584" s="158">
+        <v>31</v>
+      </c>
       <c r="E584" s="2">
         <v>-1</v>
+      </c>
+      <c r="F584" s="211">
+        <f t="shared" si="16"/>
+        <v>29600</v>
+      </c>
+      <c r="G584" s="211">
+        <f t="shared" si="15"/>
+        <v>29200</v>
       </c>
       <c r="I584" s="15" t="s">
         <v>99</v>
@@ -29933,7 +30892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="585" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="104">
         <v>2000028</v>
       </c>
@@ -29943,8 +30902,19 @@
       <c r="C585" s="2">
         <v>2</v>
       </c>
+      <c r="D585" s="158">
+        <v>31</v>
+      </c>
       <c r="E585" s="2">
         <v>-1</v>
+      </c>
+      <c r="F585" s="211">
+        <f t="shared" si="16"/>
+        <v>29200</v>
+      </c>
+      <c r="G585" s="211">
+        <f t="shared" si="15"/>
+        <v>28800</v>
       </c>
       <c r="I585" s="15" t="s">
         <v>99</v>
@@ -29962,7 +30932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="586" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="104">
         <v>2000028</v>
       </c>
@@ -29972,8 +30942,19 @@
       <c r="C586" s="2">
         <v>2</v>
       </c>
+      <c r="D586" s="158">
+        <v>31</v>
+      </c>
       <c r="E586" s="2">
         <v>-1</v>
+      </c>
+      <c r="F586" s="211">
+        <f t="shared" si="16"/>
+        <v>28800</v>
+      </c>
+      <c r="G586" s="211">
+        <f t="shared" si="15"/>
+        <v>28400</v>
       </c>
       <c r="I586" s="15" t="s">
         <v>99</v>
@@ -29991,7 +30972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="587" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="104">
         <v>2000028</v>
       </c>
@@ -30001,8 +30982,19 @@
       <c r="C587" s="2">
         <v>2</v>
       </c>
+      <c r="D587" s="158">
+        <v>31</v>
+      </c>
       <c r="E587" s="2">
         <v>-1</v>
+      </c>
+      <c r="F587" s="211">
+        <f t="shared" si="16"/>
+        <v>28400</v>
+      </c>
+      <c r="G587" s="211">
+        <f t="shared" si="15"/>
+        <v>28000</v>
       </c>
       <c r="I587" s="15" t="s">
         <v>99</v>
@@ -30020,7 +31012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="588" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="104">
         <v>2000028</v>
       </c>
@@ -30030,8 +31022,19 @@
       <c r="C588" s="2">
         <v>2</v>
       </c>
+      <c r="D588" s="158">
+        <v>31</v>
+      </c>
       <c r="E588" s="2">
         <v>-1</v>
+      </c>
+      <c r="F588" s="211">
+        <f t="shared" si="16"/>
+        <v>28000</v>
+      </c>
+      <c r="G588" s="211">
+        <f t="shared" si="15"/>
+        <v>27600</v>
       </c>
       <c r="I588" s="15" t="s">
         <v>99</v>
@@ -30049,7 +31052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="589" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="104">
         <v>2000028</v>
       </c>
@@ -30059,8 +31062,19 @@
       <c r="C589" s="2">
         <v>2</v>
       </c>
+      <c r="D589" s="158">
+        <v>31</v>
+      </c>
       <c r="E589" s="2">
         <v>-1</v>
+      </c>
+      <c r="F589" s="211">
+        <f t="shared" si="16"/>
+        <v>27600</v>
+      </c>
+      <c r="G589" s="211">
+        <f t="shared" si="15"/>
+        <v>27200</v>
       </c>
       <c r="I589" s="15" t="s">
         <v>99</v>
@@ -30078,7 +31092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="590" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="104">
         <v>2000028</v>
       </c>
@@ -30088,8 +31102,19 @@
       <c r="C590" s="2">
         <v>2</v>
       </c>
+      <c r="D590" s="158">
+        <v>31</v>
+      </c>
       <c r="E590" s="2">
         <v>-1</v>
+      </c>
+      <c r="F590" s="211">
+        <f t="shared" si="16"/>
+        <v>27200</v>
+      </c>
+      <c r="G590" s="211">
+        <f t="shared" si="15"/>
+        <v>26800</v>
       </c>
       <c r="I590" s="15" t="s">
         <v>99</v>
@@ -30107,7 +31132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="591" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="104">
         <v>2000028</v>
       </c>
@@ -30117,8 +31142,19 @@
       <c r="C591" s="2">
         <v>2</v>
       </c>
+      <c r="D591" s="158">
+        <v>31</v>
+      </c>
       <c r="E591" s="2">
         <v>-1</v>
+      </c>
+      <c r="F591" s="211">
+        <f t="shared" si="16"/>
+        <v>26800</v>
+      </c>
+      <c r="G591" s="211">
+        <f t="shared" si="15"/>
+        <v>26400</v>
       </c>
       <c r="I591" s="15" t="s">
         <v>99</v>
@@ -30136,7 +31172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="592" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="104">
         <v>2000028</v>
       </c>
@@ -30146,8 +31182,19 @@
       <c r="C592" s="2">
         <v>2</v>
       </c>
+      <c r="D592" s="158">
+        <v>31</v>
+      </c>
       <c r="E592" s="2">
         <v>-1</v>
+      </c>
+      <c r="F592" s="211">
+        <f t="shared" si="16"/>
+        <v>26400</v>
+      </c>
+      <c r="G592" s="211">
+        <f t="shared" si="15"/>
+        <v>26000</v>
       </c>
       <c r="I592" s="15" t="s">
         <v>99</v>
@@ -30165,7 +31212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="593" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="104">
         <v>2000028</v>
       </c>
@@ -30175,8 +31222,17 @@
       <c r="C593" s="2">
         <v>2</v>
       </c>
+      <c r="D593" s="158">
+        <v>31</v>
+      </c>
       <c r="E593" s="2">
         <v>-1</v>
+      </c>
+      <c r="F593" s="211">
+        <v>55230</v>
+      </c>
+      <c r="G593" s="211">
+        <v>55230</v>
       </c>
       <c r="I593" s="15" t="s">
         <v>73</v>
@@ -30198,7 +31254,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="594" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="104">
         <v>2000028</v>
       </c>
@@ -30208,8 +31264,17 @@
       <c r="C594" s="2">
         <v>2</v>
       </c>
+      <c r="D594" s="158">
+        <v>32</v>
+      </c>
       <c r="E594" s="2">
         <v>1</v>
+      </c>
+      <c r="F594" s="211">
+        <v>55230</v>
+      </c>
+      <c r="G594" s="211">
+        <v>55230</v>
       </c>
       <c r="I594" s="15" t="s">
         <v>73</v>
@@ -30231,7 +31296,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="595" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="104">
         <v>2000028</v>
       </c>
@@ -30246,6 +31311,13 @@
       </c>
       <c r="E595" s="2">
         <v>1</v>
+      </c>
+      <c r="F595" s="211">
+        <v>51780</v>
+      </c>
+      <c r="G595" s="211">
+        <f>F595-1333</f>
+        <v>50447</v>
       </c>
       <c r="K595" s="2" t="s">
         <v>7</v>
@@ -30261,7 +31333,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="596" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="104">
         <v>2000028</v>
       </c>
@@ -30276,6 +31348,13 @@
       </c>
       <c r="E596" s="2">
         <v>1</v>
+      </c>
+      <c r="F596" s="211">
+        <v>49740</v>
+      </c>
+      <c r="G596" s="211">
+        <f>F596-2000</f>
+        <v>47740</v>
       </c>
       <c r="I596" s="2" t="s">
         <v>11</v>
@@ -30294,7 +31373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="597" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="104">
         <v>2000028</v>
       </c>
@@ -30304,8 +31383,17 @@
       <c r="C597" s="2">
         <v>2</v>
       </c>
+      <c r="D597" s="168">
+        <v>32</v>
+      </c>
       <c r="E597" s="2">
         <v>1</v>
+      </c>
+      <c r="F597" s="211">
+        <v>55230</v>
+      </c>
+      <c r="G597" s="211">
+        <v>55230</v>
       </c>
       <c r="I597" s="15" t="s">
         <v>73</v>
@@ -30327,7 +31415,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="598" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="104">
         <v>2000028</v>
       </c>
@@ -30337,8 +31425,18 @@
       <c r="C598" s="2">
         <v>2</v>
       </c>
+      <c r="D598" s="168">
+        <v>32</v>
+      </c>
       <c r="E598" s="2">
         <v>1</v>
+      </c>
+      <c r="F598" s="211">
+        <v>53670</v>
+      </c>
+      <c r="G598" s="211">
+        <f>F598-300</f>
+        <v>53370</v>
       </c>
       <c r="I598" s="15"/>
       <c r="K598" s="62" t="s">
@@ -30353,7 +31451,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="599" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="104">
         <v>2000028</v>
       </c>
@@ -30363,8 +31461,19 @@
       <c r="C599" s="2">
         <v>2</v>
       </c>
+      <c r="D599" s="168">
+        <v>32</v>
+      </c>
       <c r="E599" s="2">
         <v>1</v>
+      </c>
+      <c r="F599" s="211">
+        <f>F598-300</f>
+        <v>53370</v>
+      </c>
+      <c r="G599" s="211">
+        <f t="shared" ref="G599" si="17">F599-300</f>
+        <v>53070</v>
       </c>
       <c r="I599" s="15"/>
       <c r="K599" s="62" t="s">
@@ -30379,7 +31488,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="600" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="104">
         <v>2000028</v>
       </c>
@@ -30389,8 +31498,18 @@
       <c r="C600" s="2">
         <v>2</v>
       </c>
+      <c r="D600" s="168">
+        <v>32</v>
+      </c>
       <c r="E600" s="2">
         <v>1</v>
+      </c>
+      <c r="F600" s="211">
+        <v>52680</v>
+      </c>
+      <c r="G600" s="211">
+        <f>F600-400</f>
+        <v>52280</v>
       </c>
       <c r="I600" s="15" t="s">
         <v>99</v>
@@ -30408,7 +31527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="601" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="104">
         <v>2000028</v>
       </c>
@@ -30418,8 +31537,19 @@
       <c r="C601" s="2">
         <v>2</v>
       </c>
+      <c r="D601" s="168">
+        <v>32</v>
+      </c>
       <c r="E601" s="2">
         <v>1</v>
+      </c>
+      <c r="F601" s="211">
+        <f>F600-400</f>
+        <v>52280</v>
+      </c>
+      <c r="G601" s="211">
+        <f t="shared" ref="G601:G631" si="18">F601-400</f>
+        <v>51880</v>
       </c>
       <c r="I601" s="15" t="s">
         <v>99</v>
@@ -30437,7 +31567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="602" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="104">
         <v>2000028</v>
       </c>
@@ -30447,8 +31577,19 @@
       <c r="C602" s="2">
         <v>2</v>
       </c>
+      <c r="D602" s="168">
+        <v>32</v>
+      </c>
       <c r="E602" s="2">
         <v>1</v>
+      </c>
+      <c r="F602" s="211">
+        <f t="shared" ref="F602:F631" si="19">F601-400</f>
+        <v>51880</v>
+      </c>
+      <c r="G602" s="211">
+        <f t="shared" si="18"/>
+        <v>51480</v>
       </c>
       <c r="I602" s="15" t="s">
         <v>99</v>
@@ -30466,7 +31607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="603" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="104">
         <v>2000028</v>
       </c>
@@ -30476,8 +31617,19 @@
       <c r="C603" s="2">
         <v>2</v>
       </c>
+      <c r="D603" s="168">
+        <v>32</v>
+      </c>
       <c r="E603" s="2">
         <v>1</v>
+      </c>
+      <c r="F603" s="211">
+        <f t="shared" si="19"/>
+        <v>51480</v>
+      </c>
+      <c r="G603" s="211">
+        <f t="shared" si="18"/>
+        <v>51080</v>
       </c>
       <c r="I603" s="15" t="s">
         <v>99</v>
@@ -30495,7 +31647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="604" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="104">
         <v>2000028</v>
       </c>
@@ -30505,8 +31657,19 @@
       <c r="C604" s="2">
         <v>2</v>
       </c>
+      <c r="D604" s="168">
+        <v>32</v>
+      </c>
       <c r="E604" s="2">
         <v>1</v>
+      </c>
+      <c r="F604" s="211">
+        <f t="shared" si="19"/>
+        <v>51080</v>
+      </c>
+      <c r="G604" s="211">
+        <f t="shared" si="18"/>
+        <v>50680</v>
       </c>
       <c r="I604" s="15" t="s">
         <v>99</v>
@@ -30524,7 +31687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="605" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="104">
         <v>2000028</v>
       </c>
@@ -30534,8 +31697,19 @@
       <c r="C605" s="2">
         <v>2</v>
       </c>
+      <c r="D605" s="168">
+        <v>32</v>
+      </c>
       <c r="E605" s="2">
         <v>1</v>
+      </c>
+      <c r="F605" s="211">
+        <f t="shared" si="19"/>
+        <v>50680</v>
+      </c>
+      <c r="G605" s="211">
+        <f t="shared" si="18"/>
+        <v>50280</v>
       </c>
       <c r="I605" s="15" t="s">
         <v>99</v>
@@ -30553,7 +31727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="606" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="104">
         <v>2000028</v>
       </c>
@@ -30563,8 +31737,19 @@
       <c r="C606" s="2">
         <v>2</v>
       </c>
+      <c r="D606" s="168">
+        <v>32</v>
+      </c>
       <c r="E606" s="2">
         <v>1</v>
+      </c>
+      <c r="F606" s="211">
+        <f t="shared" si="19"/>
+        <v>50280</v>
+      </c>
+      <c r="G606" s="211">
+        <f t="shared" si="18"/>
+        <v>49880</v>
       </c>
       <c r="I606" s="15" t="s">
         <v>99</v>
@@ -30582,7 +31767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="607" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="104">
         <v>2000028</v>
       </c>
@@ -30592,8 +31777,19 @@
       <c r="C607" s="2">
         <v>2</v>
       </c>
+      <c r="D607" s="168">
+        <v>32</v>
+      </c>
       <c r="E607" s="2">
         <v>1</v>
+      </c>
+      <c r="F607" s="211">
+        <f t="shared" si="19"/>
+        <v>49880</v>
+      </c>
+      <c r="G607" s="211">
+        <f t="shared" si="18"/>
+        <v>49480</v>
       </c>
       <c r="I607" s="15" t="s">
         <v>99</v>
@@ -30611,7 +31807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="608" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="104">
         <v>2000028</v>
       </c>
@@ -30621,8 +31817,19 @@
       <c r="C608" s="2">
         <v>2</v>
       </c>
+      <c r="D608" s="168">
+        <v>32</v>
+      </c>
       <c r="E608" s="2">
         <v>1</v>
+      </c>
+      <c r="F608" s="211">
+        <f t="shared" si="19"/>
+        <v>49480</v>
+      </c>
+      <c r="G608" s="211">
+        <f t="shared" si="18"/>
+        <v>49080</v>
       </c>
       <c r="I608" s="15" t="s">
         <v>99</v>
@@ -30640,7 +31847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="609" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="104">
         <v>2000028</v>
       </c>
@@ -30650,8 +31857,19 @@
       <c r="C609" s="2">
         <v>2</v>
       </c>
+      <c r="D609" s="168">
+        <v>32</v>
+      </c>
       <c r="E609" s="2">
         <v>1</v>
+      </c>
+      <c r="F609" s="211">
+        <f t="shared" si="19"/>
+        <v>49080</v>
+      </c>
+      <c r="G609" s="211">
+        <f t="shared" si="18"/>
+        <v>48680</v>
       </c>
       <c r="I609" s="15" t="s">
         <v>99</v>
@@ -30669,7 +31887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="610" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="104">
         <v>2000028</v>
       </c>
@@ -30679,8 +31897,19 @@
       <c r="C610" s="2">
         <v>2</v>
       </c>
+      <c r="D610" s="168">
+        <v>32</v>
+      </c>
       <c r="E610" s="2">
         <v>1</v>
+      </c>
+      <c r="F610" s="211">
+        <f t="shared" si="19"/>
+        <v>48680</v>
+      </c>
+      <c r="G610" s="211">
+        <f t="shared" si="18"/>
+        <v>48280</v>
       </c>
       <c r="I610" s="15" t="s">
         <v>99</v>
@@ -30698,7 +31927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="611" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="104">
         <v>2000028</v>
       </c>
@@ -30708,8 +31937,19 @@
       <c r="C611" s="2">
         <v>2</v>
       </c>
+      <c r="D611" s="168">
+        <v>32</v>
+      </c>
       <c r="E611" s="2">
         <v>1</v>
+      </c>
+      <c r="F611" s="211">
+        <f t="shared" si="19"/>
+        <v>48280</v>
+      </c>
+      <c r="G611" s="211">
+        <f t="shared" si="18"/>
+        <v>47880</v>
       </c>
       <c r="I611" s="15" t="s">
         <v>99</v>
@@ -30727,7 +31967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="612" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="104">
         <v>2000028</v>
       </c>
@@ -30737,8 +31977,19 @@
       <c r="C612" s="2">
         <v>2</v>
       </c>
+      <c r="D612" s="168">
+        <v>32</v>
+      </c>
       <c r="E612" s="2">
         <v>1</v>
+      </c>
+      <c r="F612" s="211">
+        <f t="shared" si="19"/>
+        <v>47880</v>
+      </c>
+      <c r="G612" s="211">
+        <f t="shared" si="18"/>
+        <v>47480</v>
       </c>
       <c r="I612" s="15" t="s">
         <v>99</v>
@@ -30756,7 +32007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="613" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="104">
         <v>2000028</v>
       </c>
@@ -30766,8 +32017,19 @@
       <c r="C613" s="2">
         <v>2</v>
       </c>
+      <c r="D613" s="168">
+        <v>32</v>
+      </c>
       <c r="E613" s="2">
         <v>1</v>
+      </c>
+      <c r="F613" s="211">
+        <f t="shared" si="19"/>
+        <v>47480</v>
+      </c>
+      <c r="G613" s="211">
+        <f t="shared" si="18"/>
+        <v>47080</v>
       </c>
       <c r="I613" s="15" t="s">
         <v>99</v>
@@ -30785,7 +32047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="614" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="104">
         <v>2000028</v>
       </c>
@@ -30795,8 +32057,19 @@
       <c r="C614" s="2">
         <v>2</v>
       </c>
+      <c r="D614" s="168">
+        <v>32</v>
+      </c>
       <c r="E614" s="2">
         <v>1</v>
+      </c>
+      <c r="F614" s="211">
+        <f t="shared" si="19"/>
+        <v>47080</v>
+      </c>
+      <c r="G614" s="211">
+        <f t="shared" si="18"/>
+        <v>46680</v>
       </c>
       <c r="I614" s="15" t="s">
         <v>99</v>
@@ -30814,7 +32087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="615" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="104">
         <v>2000028</v>
       </c>
@@ -30824,8 +32097,19 @@
       <c r="C615" s="2">
         <v>2</v>
       </c>
+      <c r="D615" s="168">
+        <v>32</v>
+      </c>
       <c r="E615" s="2">
         <v>1</v>
+      </c>
+      <c r="F615" s="211">
+        <f t="shared" si="19"/>
+        <v>46680</v>
+      </c>
+      <c r="G615" s="211">
+        <f t="shared" si="18"/>
+        <v>46280</v>
       </c>
       <c r="I615" s="15" t="s">
         <v>99</v>
@@ -30843,7 +32127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="616" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="104">
         <v>2000028</v>
       </c>
@@ -30853,8 +32137,19 @@
       <c r="C616" s="2">
         <v>2</v>
       </c>
+      <c r="D616" s="168">
+        <v>32</v>
+      </c>
       <c r="E616" s="2">
         <v>1</v>
+      </c>
+      <c r="F616" s="211">
+        <f t="shared" si="19"/>
+        <v>46280</v>
+      </c>
+      <c r="G616" s="211">
+        <f t="shared" si="18"/>
+        <v>45880</v>
       </c>
       <c r="I616" s="15" t="s">
         <v>99</v>
@@ -30872,7 +32167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="617" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A617" s="104">
         <v>2000028</v>
       </c>
@@ -30882,8 +32177,19 @@
       <c r="C617" s="2">
         <v>2</v>
       </c>
+      <c r="D617" s="168">
+        <v>32</v>
+      </c>
       <c r="E617" s="2">
         <v>1</v>
+      </c>
+      <c r="F617" s="211">
+        <f t="shared" si="19"/>
+        <v>45880</v>
+      </c>
+      <c r="G617" s="211">
+        <f t="shared" si="18"/>
+        <v>45480</v>
       </c>
       <c r="I617" s="15" t="s">
         <v>99</v>
@@ -30901,7 +32207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="618" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A618" s="104">
         <v>2000028</v>
       </c>
@@ -30911,8 +32217,19 @@
       <c r="C618" s="2">
         <v>2</v>
       </c>
+      <c r="D618" s="168">
+        <v>32</v>
+      </c>
       <c r="E618" s="2">
         <v>1</v>
+      </c>
+      <c r="F618" s="211">
+        <f t="shared" si="19"/>
+        <v>45480</v>
+      </c>
+      <c r="G618" s="211">
+        <f t="shared" si="18"/>
+        <v>45080</v>
       </c>
       <c r="I618" s="15" t="s">
         <v>99</v>
@@ -30930,7 +32247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="619" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A619" s="104">
         <v>2000028</v>
       </c>
@@ -30940,8 +32257,19 @@
       <c r="C619" s="2">
         <v>2</v>
       </c>
+      <c r="D619" s="168">
+        <v>32</v>
+      </c>
       <c r="E619" s="2">
         <v>1</v>
+      </c>
+      <c r="F619" s="211">
+        <f t="shared" si="19"/>
+        <v>45080</v>
+      </c>
+      <c r="G619" s="211">
+        <f t="shared" si="18"/>
+        <v>44680</v>
       </c>
       <c r="I619" s="15" t="s">
         <v>99</v>
@@ -30959,7 +32287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="620" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A620" s="104">
         <v>2000028</v>
       </c>
@@ -30969,8 +32297,19 @@
       <c r="C620" s="2">
         <v>2</v>
       </c>
+      <c r="D620" s="168">
+        <v>32</v>
+      </c>
       <c r="E620" s="2">
         <v>1</v>
+      </c>
+      <c r="F620" s="211">
+        <f t="shared" si="19"/>
+        <v>44680</v>
+      </c>
+      <c r="G620" s="211">
+        <f t="shared" si="18"/>
+        <v>44280</v>
       </c>
       <c r="I620" s="15" t="s">
         <v>99</v>
@@ -30988,7 +32327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="621" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A621" s="104">
         <v>2000028</v>
       </c>
@@ -30998,8 +32337,19 @@
       <c r="C621" s="2">
         <v>2</v>
       </c>
+      <c r="D621" s="168">
+        <v>32</v>
+      </c>
       <c r="E621" s="2">
         <v>1</v>
+      </c>
+      <c r="F621" s="211">
+        <f t="shared" si="19"/>
+        <v>44280</v>
+      </c>
+      <c r="G621" s="211">
+        <f t="shared" si="18"/>
+        <v>43880</v>
       </c>
       <c r="I621" s="15" t="s">
         <v>99</v>
@@ -31017,7 +32367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="622" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A622" s="104">
         <v>2000028</v>
       </c>
@@ -31027,8 +32377,19 @@
       <c r="C622" s="2">
         <v>2</v>
       </c>
+      <c r="D622" s="168">
+        <v>32</v>
+      </c>
       <c r="E622" s="2">
         <v>1</v>
+      </c>
+      <c r="F622" s="211">
+        <f t="shared" si="19"/>
+        <v>43880</v>
+      </c>
+      <c r="G622" s="211">
+        <f t="shared" si="18"/>
+        <v>43480</v>
       </c>
       <c r="I622" s="15" t="s">
         <v>99</v>
@@ -31046,7 +32407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="623" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="104">
         <v>2000028</v>
       </c>
@@ -31056,8 +32417,19 @@
       <c r="C623" s="2">
         <v>2</v>
       </c>
+      <c r="D623" s="168">
+        <v>32</v>
+      </c>
       <c r="E623" s="2">
         <v>1</v>
+      </c>
+      <c r="F623" s="211">
+        <f t="shared" si="19"/>
+        <v>43480</v>
+      </c>
+      <c r="G623" s="211">
+        <f t="shared" si="18"/>
+        <v>43080</v>
       </c>
       <c r="I623" s="15" t="s">
         <v>99</v>
@@ -31075,7 +32447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A624" s="104">
         <v>2000028</v>
       </c>
@@ -31085,8 +32457,19 @@
       <c r="C624" s="2">
         <v>2</v>
       </c>
+      <c r="D624" s="168">
+        <v>32</v>
+      </c>
       <c r="E624" s="2">
         <v>1</v>
+      </c>
+      <c r="F624" s="211">
+        <f t="shared" si="19"/>
+        <v>43080</v>
+      </c>
+      <c r="G624" s="211">
+        <f t="shared" si="18"/>
+        <v>42680</v>
       </c>
       <c r="I624" s="15" t="s">
         <v>99</v>
@@ -31104,7 +32487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="625" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A625" s="104">
         <v>2000028</v>
       </c>
@@ -31114,8 +32497,19 @@
       <c r="C625" s="2">
         <v>2</v>
       </c>
+      <c r="D625" s="168">
+        <v>32</v>
+      </c>
       <c r="E625" s="2">
         <v>1</v>
+      </c>
+      <c r="F625" s="211">
+        <f t="shared" si="19"/>
+        <v>42680</v>
+      </c>
+      <c r="G625" s="211">
+        <f t="shared" si="18"/>
+        <v>42280</v>
       </c>
       <c r="I625" s="15" t="s">
         <v>99</v>
@@ -31133,7 +32527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="626" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A626" s="104">
         <v>2000028</v>
       </c>
@@ -31143,8 +32537,19 @@
       <c r="C626" s="2">
         <v>2</v>
       </c>
+      <c r="D626" s="168">
+        <v>32</v>
+      </c>
       <c r="E626" s="2">
         <v>1</v>
+      </c>
+      <c r="F626" s="211">
+        <f t="shared" si="19"/>
+        <v>42280</v>
+      </c>
+      <c r="G626" s="211">
+        <f t="shared" si="18"/>
+        <v>41880</v>
       </c>
       <c r="I626" s="15" t="s">
         <v>99</v>
@@ -31162,7 +32567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="627" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A627" s="104">
         <v>2000028</v>
       </c>
@@ -31172,8 +32577,19 @@
       <c r="C627" s="2">
         <v>2</v>
       </c>
+      <c r="D627" s="168">
+        <v>32</v>
+      </c>
       <c r="E627" s="2">
         <v>1</v>
+      </c>
+      <c r="F627" s="211">
+        <f t="shared" si="19"/>
+        <v>41880</v>
+      </c>
+      <c r="G627" s="211">
+        <f t="shared" si="18"/>
+        <v>41480</v>
       </c>
       <c r="I627" s="15" t="s">
         <v>99</v>
@@ -31191,7 +32607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="628" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="104">
         <v>2000028</v>
       </c>
@@ -31201,8 +32617,19 @@
       <c r="C628" s="2">
         <v>2</v>
       </c>
+      <c r="D628" s="168">
+        <v>32</v>
+      </c>
       <c r="E628" s="2">
         <v>1</v>
+      </c>
+      <c r="F628" s="211">
+        <f t="shared" si="19"/>
+        <v>41480</v>
+      </c>
+      <c r="G628" s="211">
+        <f t="shared" si="18"/>
+        <v>41080</v>
       </c>
       <c r="I628" s="15" t="s">
         <v>99</v>
@@ -31220,7 +32647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="629" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A629" s="104">
         <v>2000028</v>
       </c>
@@ -31230,8 +32657,19 @@
       <c r="C629" s="2">
         <v>2</v>
       </c>
+      <c r="D629" s="168">
+        <v>32</v>
+      </c>
       <c r="E629" s="2">
         <v>1</v>
+      </c>
+      <c r="F629" s="211">
+        <f t="shared" si="19"/>
+        <v>41080</v>
+      </c>
+      <c r="G629" s="211">
+        <f t="shared" si="18"/>
+        <v>40680</v>
       </c>
       <c r="I629" s="15" t="s">
         <v>99</v>
@@ -31249,7 +32687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="630" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A630" s="104">
         <v>2000028</v>
       </c>
@@ -31259,8 +32697,19 @@
       <c r="C630" s="2">
         <v>2</v>
       </c>
+      <c r="D630" s="168">
+        <v>32</v>
+      </c>
       <c r="E630" s="2">
         <v>1</v>
+      </c>
+      <c r="F630" s="211">
+        <f t="shared" si="19"/>
+        <v>40680</v>
+      </c>
+      <c r="G630" s="211">
+        <f t="shared" si="18"/>
+        <v>40280</v>
       </c>
       <c r="I630" s="15" t="s">
         <v>99</v>
@@ -31278,7 +32727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="631" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A631" s="104">
         <v>2000028</v>
       </c>
@@ -31288,8 +32737,19 @@
       <c r="C631" s="2">
         <v>2</v>
       </c>
+      <c r="D631" s="168">
+        <v>32</v>
+      </c>
       <c r="E631" s="2">
         <v>1</v>
+      </c>
+      <c r="F631" s="211">
+        <f t="shared" si="19"/>
+        <v>40280</v>
+      </c>
+      <c r="G631" s="211">
+        <f t="shared" si="18"/>
+        <v>39880</v>
       </c>
       <c r="I631" s="15" t="s">
         <v>99</v>
@@ -31307,7 +32767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A632" s="104">
         <v>2000028</v>
       </c>
@@ -31317,8 +32777,18 @@
       <c r="C632" s="2">
         <v>2</v>
       </c>
+      <c r="D632" s="168">
+        <v>32</v>
+      </c>
       <c r="E632" s="2">
         <v>1</v>
+      </c>
+      <c r="F632" s="211">
+        <v>27030</v>
+      </c>
+      <c r="G632" s="211">
+        <f>F632-300</f>
+        <v>26730</v>
       </c>
       <c r="I632" s="15"/>
       <c r="J632" s="15"/>
@@ -31334,7 +32804,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="633" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A633" s="104">
         <v>2000028</v>
       </c>
@@ -31344,8 +32814,19 @@
       <c r="C633" s="2">
         <v>2</v>
       </c>
+      <c r="D633" s="168">
+        <v>32</v>
+      </c>
       <c r="E633" s="2">
         <v>1</v>
+      </c>
+      <c r="F633" s="211">
+        <f>F632-300</f>
+        <v>26730</v>
+      </c>
+      <c r="G633" s="211">
+        <f t="shared" ref="G633:G634" si="20">F633-300</f>
+        <v>26430</v>
       </c>
       <c r="I633" s="15"/>
       <c r="J633" s="15"/>
@@ -31361,7 +32842,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="634" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A634" s="104">
         <v>2000028</v>
       </c>
@@ -31371,8 +32852,19 @@
       <c r="C634" s="2">
         <v>2</v>
       </c>
+      <c r="D634" s="168">
+        <v>32</v>
+      </c>
       <c r="E634" s="2">
         <v>1</v>
+      </c>
+      <c r="F634" s="211">
+        <f>F633-300</f>
+        <v>26430</v>
+      </c>
+      <c r="G634" s="211">
+        <f t="shared" si="20"/>
+        <v>26130</v>
       </c>
       <c r="I634" s="15"/>
       <c r="J634" s="15"/>
@@ -31388,7 +32880,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="635" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A635" s="104">
         <v>2000028</v>
       </c>
@@ -31398,8 +32890,18 @@
       <c r="C635" s="2">
         <v>2</v>
       </c>
+      <c r="D635" s="168">
+        <v>32</v>
+      </c>
       <c r="E635" s="2">
         <v>1</v>
+      </c>
+      <c r="F635" s="211">
+        <v>19520</v>
+      </c>
+      <c r="G635" s="211">
+        <f>F635-192</f>
+        <v>19328</v>
       </c>
       <c r="I635" s="2" t="s">
         <v>67</v>
@@ -31422,7 +32924,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="636" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="104">
         <v>2000028</v>
       </c>
@@ -31433,10 +32935,17 @@
         <v>2</v>
       </c>
       <c r="D636" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E636" s="2">
         <v>-1</v>
+      </c>
+      <c r="F636" s="211">
+        <v>6690</v>
+      </c>
+      <c r="G636" s="211">
+        <f>F636-2000</f>
+        <v>4690</v>
       </c>
       <c r="I636" s="2" t="s">
         <v>11</v>
@@ -31456,7 +32965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="637" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A637" s="104">
         <v>2000028</v>
       </c>
@@ -31467,10 +32976,17 @@
         <v>2</v>
       </c>
       <c r="D637" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E637" s="2">
         <v>-1</v>
+      </c>
+      <c r="F637" s="211">
+        <v>4320</v>
+      </c>
+      <c r="G637" s="211">
+        <f>F637-1333</f>
+        <v>2987</v>
       </c>
       <c r="K637" s="15" t="s">
         <v>7</v>
@@ -31487,7 +33003,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="638" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A638" s="104">
         <v>2000028</v>
       </c>
@@ -31498,10 +33014,17 @@
         <v>2</v>
       </c>
       <c r="D638" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E638" s="2">
         <v>1</v>
+      </c>
+      <c r="F638" s="211">
+        <v>6750</v>
+      </c>
+      <c r="G638" s="211">
+        <f>F638-1333</f>
+        <v>5417</v>
       </c>
       <c r="K638" s="15" t="s">
         <v>7</v>
@@ -31518,7 +33041,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="639" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A639" s="104">
         <v>2000028</v>
       </c>
@@ -31529,10 +33052,17 @@
         <v>2</v>
       </c>
       <c r="D639" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E639" s="2">
         <v>1</v>
+      </c>
+      <c r="F639" s="211">
+        <v>4790</v>
+      </c>
+      <c r="G639" s="211">
+        <f>F639-2000</f>
+        <v>2790</v>
       </c>
       <c r="K639" s="15" t="s">
         <v>7</v>
@@ -40868,7 +42398,7 @@
   <autoFilter ref="A1:R1124" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2000030"/>
+        <filter val="2000028"/>
       </filters>
     </filterColumn>
   </autoFilter>
